--- a/utils/itransdict.xlsx
+++ b/utils/itransdict.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="355">
   <si>
     <t>INPUT</t>
   </si>
@@ -683,9 +683,6 @@
     <t>u+093E</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>dv-i</t>
   </si>
   <si>
@@ -780,9 +777,6 @@
   </si>
   <si>
     <t>u+094B</t>
-  </si>
-  <si>
-    <t>dv-oo</t>
   </si>
   <si>
     <t>dv-au</t>
@@ -1311,14 +1305,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR137"/>
+  <dimension ref="A1:AR136"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
-      <selection pane="bottomRight" activeCell="A86" activeCellId="0" sqref="A86"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3685,9 +3679,11 @@
         <f aca="false">CONCATENATE("\u",F40 )</f>
         <v>\u</v>
       </c>
-      <c r="F40" s="6" t="str">
+      <c r="F40" s="6" t="inlineStr">
         <f aca="false">RIGHT(D40,4)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="12"/>
@@ -5523,9 +5519,11 @@
         <f aca="false">CONCATENATE("\u",F71 )</f>
         <v>\u</v>
       </c>
-      <c r="F71" s="6" t="str">
+      <c r="F71" s="6" t="inlineStr">
         <f aca="false">RIGHT(D71,4)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="12"/>
@@ -5821,9 +5819,11 @@
         <f aca="false">CONCATENATE("\u",F76 )</f>
         <v>\u</v>
       </c>
-      <c r="F76" s="6" t="str">
+      <c r="F76" s="6" t="inlineStr">
         <f aca="false">RIGHT(D76,4)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G76" s="11"/>
       <c r="H76" s="12"/>
@@ -5937,9 +5937,11 @@
         <f aca="false">CONCATENATE("\u",F78 )</f>
         <v>\u</v>
       </c>
-      <c r="F78" s="6" t="str">
+      <c r="F78" s="6" t="inlineStr">
         <f aca="false">RIGHT(D78,4)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G78" s="11"/>
       <c r="H78" s="12"/>
@@ -5993,9 +5995,11 @@
         <f aca="false">CONCATENATE("\u",F79 )</f>
         <v>\u</v>
       </c>
-      <c r="F79" s="6" t="str">
+      <c r="F79" s="6" t="inlineStr">
         <f aca="false">RIGHT(D79,4)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
@@ -6098,16 +6102,16 @@
     </row>
     <row r="81" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E81" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F81 )</f>
@@ -6161,13 +6165,13 @@
         <v>171</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E82" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F82 )</f>
@@ -6221,13 +6225,13 @@
         <v>173</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E83" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F83 )</f>
@@ -6281,13 +6285,13 @@
         <v>176</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E84" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F84 )</f>
@@ -6338,16 +6342,16 @@
     </row>
     <row r="85" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E85" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F85 )</f>
@@ -6399,13 +6403,13 @@
     <row r="86" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E86" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F86 )</f>
@@ -6457,13 +6461,13 @@
     <row r="87" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E87" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F87 )</f>
@@ -6515,13 +6519,13 @@
     <row r="88" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
       <c r="B88" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E88" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F88 )</f>
@@ -6573,13 +6577,13 @@
     <row r="89" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E89" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F89 )</f>
@@ -6631,13 +6635,13 @@
     <row r="90" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E90" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F90 )</f>
@@ -6687,15 +6691,17 @@
       <c r="AR90" s="10"/>
     </row>
     <row r="91" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6"/>
+      <c r="A91" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="B91" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E91" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F91 )</f>
@@ -6747,7 +6753,7 @@
     <row r="92" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>218</v>
@@ -6757,9 +6763,11 @@
         <f aca="false">CONCATENATE("\u",F92 )</f>
         <v>\u</v>
       </c>
-      <c r="F92" s="6" t="str">
+      <c r="F92" s="6" t="inlineStr">
         <f aca="false">RIGHT(D92,4)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G92" s="11"/>
       <c r="H92" s="12"/>
@@ -6801,15 +6809,17 @@
       <c r="AR92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6"/>
+      <c r="A93" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="B93" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E93" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F93 )</f>
@@ -6861,13 +6871,13 @@
     <row r="94" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E94" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F94 )</f>
@@ -6919,13 +6929,13 @@
     <row r="95" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15"/>
       <c r="B95" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E95" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F95 )</f>
@@ -6975,15 +6985,17 @@
       <c r="AR95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6"/>
+      <c r="A96" s="6" t="s">
+        <v>211</v>
+      </c>
       <c r="B96" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E96" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F96 )</f>
@@ -7033,33 +7045,37 @@
       <c r="AR96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6"/>
+      <c r="A97" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="B97" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D97" s="6"/>
+      <c r="D97" s="6" t="s">
+        <v>255</v>
+      </c>
       <c r="E97" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F97 )</f>
-        <v>\u</v>
+        <v>\u094C</v>
       </c>
       <c r="F97" s="6" t="str">
         <f aca="false">RIGHT(D97,4)</f>
-        <v/>
-      </c>
-      <c r="G97" s="11"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
+        <v>094C</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
       <c r="N97" s="6"/>
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
-      <c r="Q97" s="14"/>
+      <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
@@ -7093,30 +7109,28 @@
       <c r="B98" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>218</v>
-      </c>
+      <c r="C98" s="6"/>
       <c r="D98" s="6" t="s">
         <v>257</v>
       </c>
       <c r="E98" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F98 )</f>
-        <v>\u094C</v>
+        <v>\u093C</v>
       </c>
       <c r="F98" s="6" t="str">
         <f aca="false">RIGHT(D98,4)</f>
-        <v>094C</v>
-      </c>
-      <c r="G98" s="7"/>
+        <v>093C</v>
+      </c>
+      <c r="G98" s="11"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
       <c r="N98" s="6"/>
       <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
+      <c r="P98" s="12"/>
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
@@ -7147,33 +7161,35 @@
       <c r="AR98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6"/>
+      <c r="A99" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="B99" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E99" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F99 )</f>
-        <v>\u093C</v>
+        <v>\u093D</v>
       </c>
       <c r="F99" s="6" t="str">
         <f aca="false">RIGHT(D99,4)</f>
-        <v>093C</v>
+        <v>093D</v>
       </c>
       <c r="G99" s="11"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
+      <c r="I99" s="12"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="12"/>
       <c r="M99" s="12"/>
       <c r="N99" s="6"/>
       <c r="O99" s="8"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="6"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="14"/>
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
@@ -7203,9 +7219,7 @@
       <c r="AR99" s="10"/>
     </row>
     <row r="100" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6" t="s">
-        <v>260</v>
-      </c>
+      <c r="A100" s="6"/>
       <c r="B100" s="6" t="s">
         <v>261</v>
       </c>
@@ -7215,23 +7229,23 @@
       </c>
       <c r="E100" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F100 )</f>
-        <v>\u093D</v>
+        <v>\u094D</v>
       </c>
       <c r="F100" s="6" t="str">
         <f aca="false">RIGHT(D100,4)</f>
-        <v>093D</v>
-      </c>
-      <c r="G100" s="11"/>
+        <v>094D</v>
+      </c>
+      <c r="G100" s="7"/>
       <c r="H100" s="8"/>
-      <c r="I100" s="12"/>
+      <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
       <c r="N100" s="6"/>
       <c r="O100" s="8"/>
       <c r="P100" s="8"/>
-      <c r="Q100" s="14"/>
+      <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
@@ -7261,33 +7275,35 @@
       <c r="AR100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6"/>
+      <c r="A101" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="B101" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E101" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F101 )</f>
-        <v>\u094D</v>
+        <v>\uwnj}</v>
       </c>
       <c r="F101" s="6" t="str">
         <f aca="false">RIGHT(D101,4)</f>
-        <v>094D</v>
+        <v>wnj}</v>
       </c>
       <c r="G101" s="7"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
       <c r="N101" s="6"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="Q101" s="6"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
@@ -7318,34 +7334,34 @@
     </row>
     <row r="102" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E102" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F102 )</f>
-        <v>\uwnj}</v>
+        <v>\u0901</v>
       </c>
       <c r="F102" s="6" t="str">
         <f aca="false">RIGHT(D102,4)</f>
-        <v>wnj}</v>
+        <v>0901</v>
       </c>
       <c r="G102" s="7"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
-      <c r="K102" s="14"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="14"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
       <c r="N102" s="6"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="14"/>
-      <c r="Q102" s="14"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
       <c r="T102" s="6"/>
@@ -7376,30 +7392,30 @@
     </row>
     <row r="103" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E103" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F103 )</f>
-        <v>\u0901</v>
+        <v>\u0902</v>
       </c>
       <c r="F103" s="6" t="str">
         <f aca="false">RIGHT(D103,4)</f>
-        <v>0901</v>
+        <v>0902</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
       <c r="N103" s="6"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
@@ -7434,22 +7450,22 @@
     </row>
     <row r="104" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E104" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F104 )</f>
-        <v>\u0902</v>
+        <v>\u0903</v>
       </c>
       <c r="F104" s="6" t="str">
         <f aca="false">RIGHT(D104,4)</f>
-        <v>0902</v>
+        <v>0903</v>
       </c>
       <c r="G104" s="7"/>
       <c r="H104" s="8"/>
@@ -7492,33 +7508,33 @@
     </row>
     <row r="105" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E105" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F105 )</f>
-        <v>\u0903</v>
+        <v>\u0950</v>
       </c>
       <c r="F105" s="6" t="str">
         <f aca="false">RIGHT(D105,4)</f>
-        <v>0903</v>
+        <v>0950</v>
       </c>
       <c r="G105" s="7"/>
-      <c r="H105" s="8"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
+      <c r="K105" s="6"/>
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
       <c r="N105" s="6"/>
-      <c r="O105" s="8"/>
-      <c r="P105" s="8"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
       <c r="S105" s="6"/>
@@ -7549,9 +7565,7 @@
       <c r="AR105" s="10"/>
     </row>
     <row r="106" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6" t="s">
-        <v>277</v>
-      </c>
+      <c r="A106" s="6"/>
       <c r="B106" s="6" t="s">
         <v>278</v>
       </c>
@@ -7561,22 +7575,22 @@
       </c>
       <c r="E106" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F106 )</f>
-        <v>\u0950</v>
+        <v>\u0951</v>
       </c>
       <c r="F106" s="6" t="str">
         <f aca="false">RIGHT(D106,4)</f>
-        <v>0950</v>
-      </c>
-      <c r="G106" s="7"/>
+        <v>0951</v>
+      </c>
+      <c r="G106" s="11"/>
       <c r="H106" s="6"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
       <c r="K106" s="6"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
       <c r="N106" s="6"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
@@ -7617,11 +7631,11 @@
       </c>
       <c r="E107" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F107 )</f>
-        <v>\u0951</v>
+        <v>\u0952</v>
       </c>
       <c r="F107" s="6" t="str">
         <f aca="false">RIGHT(D107,4)</f>
-        <v>0951</v>
+        <v>0952</v>
       </c>
       <c r="G107" s="11"/>
       <c r="H107" s="6"/>
@@ -7673,11 +7687,11 @@
       </c>
       <c r="E108" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F108 )</f>
-        <v>\u0952</v>
+        <v>\uA8F3</v>
       </c>
       <c r="F108" s="6" t="str">
         <f aca="false">RIGHT(D108,4)</f>
-        <v>0952</v>
+        <v>A8F3</v>
       </c>
       <c r="G108" s="11"/>
       <c r="H108" s="6"/>
@@ -7729,11 +7743,11 @@
       </c>
       <c r="E109" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F109 )</f>
-        <v>\uA8F3</v>
+        <v>\u1CDA</v>
       </c>
       <c r="F109" s="6" t="str">
         <f aca="false">RIGHT(D109,4)</f>
-        <v>A8F3</v>
+        <v>1CDA</v>
       </c>
       <c r="G109" s="11"/>
       <c r="H109" s="6"/>
@@ -7785,11 +7799,11 @@
       </c>
       <c r="E110" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F110 )</f>
-        <v>\u1CDA</v>
+        <v>\u0953</v>
       </c>
       <c r="F110" s="6" t="str">
         <f aca="false">RIGHT(D110,4)</f>
-        <v>1CDA</v>
+        <v>0953</v>
       </c>
       <c r="G110" s="11"/>
       <c r="H110" s="6"/>
@@ -7841,11 +7855,11 @@
       </c>
       <c r="E111" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F111 )</f>
-        <v>\u0953</v>
+        <v>\u0954</v>
       </c>
       <c r="F111" s="6" t="str">
         <f aca="false">RIGHT(D111,4)</f>
-        <v>0953</v>
+        <v>0954</v>
       </c>
       <c r="G111" s="11"/>
       <c r="H111" s="6"/>
@@ -7887,33 +7901,35 @@
       <c r="AR111" s="10"/>
     </row>
     <row r="112" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="6"/>
+      <c r="A112" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="B112" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E112" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F112 )</f>
-        <v>\u0954</v>
+        <v>\u0964</v>
       </c>
       <c r="F112" s="6" t="str">
         <f aca="false">RIGHT(D112,4)</f>
-        <v>0954</v>
-      </c>
-      <c r="G112" s="11"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
+        <v>0964</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="14"/>
+      <c r="M112" s="14"/>
+      <c r="N112" s="14"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="14"/>
+      <c r="Q112" s="14"/>
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
       <c r="T112" s="6"/>
@@ -7944,25 +7960,25 @@
     </row>
     <row r="113" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E113" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F113 )</f>
-        <v>\u0964</v>
+        <v>\u0965</v>
       </c>
       <c r="F113" s="6" t="str">
         <f aca="false">RIGHT(D113,4)</f>
-        <v>0964</v>
+        <v>0965</v>
       </c>
       <c r="G113" s="7"/>
-      <c r="H113" s="12"/>
+      <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
       <c r="K113" s="14"/>
@@ -8002,34 +8018,34 @@
     </row>
     <row r="114" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E114" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F114 )</f>
-        <v>\u0965</v>
+        <v>\u0966</v>
       </c>
       <c r="F114" s="6" t="str">
         <f aca="false">RIGHT(D114,4)</f>
-        <v>0965</v>
+        <v>0966</v>
       </c>
       <c r="G114" s="7"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="14"/>
-      <c r="K114" s="14"/>
-      <c r="L114" s="14"/>
-      <c r="M114" s="14"/>
-      <c r="N114" s="14"/>
-      <c r="O114" s="14"/>
-      <c r="P114" s="14"/>
-      <c r="Q114" s="14"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
       <c r="R114" s="6"/>
       <c r="S114" s="6"/>
       <c r="T114" s="6"/>
@@ -8060,22 +8076,22 @@
     </row>
     <row r="115" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E115" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F115 )</f>
-        <v>\u0966</v>
+        <v>\u0967</v>
       </c>
       <c r="F115" s="6" t="str">
         <f aca="false">RIGHT(D115,4)</f>
-        <v>0966</v>
+        <v>0967</v>
       </c>
       <c r="G115" s="7"/>
       <c r="H115" s="8"/>
@@ -8118,22 +8134,22 @@
     </row>
     <row r="116" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E116" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F116 )</f>
-        <v>\u0967</v>
+        <v>\u0968</v>
       </c>
       <c r="F116" s="6" t="str">
         <f aca="false">RIGHT(D116,4)</f>
-        <v>0967</v>
+        <v>0968</v>
       </c>
       <c r="G116" s="7"/>
       <c r="H116" s="8"/>
@@ -8176,22 +8192,22 @@
     </row>
     <row r="117" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E117" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F117 )</f>
-        <v>\u0968</v>
+        <v>\u0969</v>
       </c>
       <c r="F117" s="6" t="str">
         <f aca="false">RIGHT(D117,4)</f>
-        <v>0968</v>
+        <v>0969</v>
       </c>
       <c r="G117" s="7"/>
       <c r="H117" s="8"/>
@@ -8234,22 +8250,22 @@
     </row>
     <row r="118" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E118" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F118 )</f>
-        <v>\u0969</v>
+        <v>\u096A</v>
       </c>
       <c r="F118" s="6" t="str">
         <f aca="false">RIGHT(D118,4)</f>
-        <v>0969</v>
+        <v>096A</v>
       </c>
       <c r="G118" s="7"/>
       <c r="H118" s="8"/>
@@ -8292,22 +8308,22 @@
     </row>
     <row r="119" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E119" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F119 )</f>
-        <v>\u096A</v>
+        <v>\u096B</v>
       </c>
       <c r="F119" s="6" t="str">
         <f aca="false">RIGHT(D119,4)</f>
-        <v>096A</v>
+        <v>096B</v>
       </c>
       <c r="G119" s="7"/>
       <c r="H119" s="8"/>
@@ -8350,22 +8366,22 @@
     </row>
     <row r="120" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E120" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F120 )</f>
-        <v>\u096B</v>
+        <v>\u096C</v>
       </c>
       <c r="F120" s="6" t="str">
         <f aca="false">RIGHT(D120,4)</f>
-        <v>096B</v>
+        <v>096C</v>
       </c>
       <c r="G120" s="7"/>
       <c r="H120" s="8"/>
@@ -8408,22 +8424,22 @@
     </row>
     <row r="121" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E121" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F121 )</f>
-        <v>\u096C</v>
+        <v>\u096D</v>
       </c>
       <c r="F121" s="6" t="str">
         <f aca="false">RIGHT(D121,4)</f>
-        <v>096C</v>
+        <v>096D</v>
       </c>
       <c r="G121" s="7"/>
       <c r="H121" s="8"/>
@@ -8466,22 +8482,22 @@
     </row>
     <row r="122" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E122" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F122 )</f>
-        <v>\u096D</v>
+        <v>\u096E</v>
       </c>
       <c r="F122" s="6" t="str">
         <f aca="false">RIGHT(D122,4)</f>
-        <v>096D</v>
+        <v>096E</v>
       </c>
       <c r="G122" s="7"/>
       <c r="H122" s="8"/>
@@ -8524,22 +8540,22 @@
     </row>
     <row r="123" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E123" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F123 )</f>
-        <v>\u096E</v>
+        <v>\u096F</v>
       </c>
       <c r="F123" s="6" t="str">
         <f aca="false">RIGHT(D123,4)</f>
-        <v>096E</v>
+        <v>096F</v>
       </c>
       <c r="G123" s="7"/>
       <c r="H123" s="8"/>
@@ -8581,9 +8597,7 @@
       <c r="AR123" s="10"/>
     </row>
     <row r="124" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="6" t="s">
-        <v>325</v>
-      </c>
+      <c r="A124" s="6"/>
       <c r="B124" s="6" t="s">
         <v>326</v>
       </c>
@@ -8593,23 +8607,23 @@
       </c>
       <c r="E124" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F124 )</f>
-        <v>\u096F</v>
+        <v>\uA8F7</v>
       </c>
       <c r="F124" s="6" t="str">
         <f aca="false">RIGHT(D124,4)</f>
-        <v>096F</v>
-      </c>
-      <c r="G124" s="7"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
+        <v>A8F7</v>
+      </c>
+      <c r="G124" s="11"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
       <c r="N124" s="6"/>
-      <c r="O124" s="8"/>
-      <c r="P124" s="8"/>
-      <c r="Q124" s="8"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
       <c r="S124" s="6"/>
       <c r="T124" s="6"/>
@@ -8649,11 +8663,11 @@
       </c>
       <c r="E125" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F125 )</f>
-        <v>\uA8F7</v>
+        <v>\uA8F8</v>
       </c>
       <c r="F125" s="6" t="str">
         <f aca="false">RIGHT(D125,4)</f>
-        <v>A8F7</v>
+        <v>A8F8</v>
       </c>
       <c r="G125" s="11"/>
       <c r="H125" s="6"/>
@@ -8705,13 +8719,13 @@
       </c>
       <c r="E126" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F126 )</f>
-        <v>\uA8F8</v>
+        <v>\u1CD0</v>
       </c>
       <c r="F126" s="6" t="str">
         <f aca="false">RIGHT(D126,4)</f>
-        <v>A8F8</v>
-      </c>
-      <c r="G126" s="11"/>
+        <v>1CD0</v>
+      </c>
+      <c r="G126" s="6"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
@@ -8761,11 +8775,11 @@
       </c>
       <c r="E127" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F127 )</f>
-        <v>\u1CD0</v>
+        <v>\u1CD1</v>
       </c>
       <c r="F127" s="6" t="str">
         <f aca="false">RIGHT(D127,4)</f>
-        <v>1CD0</v>
+        <v>1CD1</v>
       </c>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
@@ -8817,11 +8831,11 @@
       </c>
       <c r="E128" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F128 )</f>
-        <v>\u1CD1</v>
+        <v>\u1CD2</v>
       </c>
       <c r="F128" s="6" t="str">
         <f aca="false">RIGHT(D128,4)</f>
-        <v>1CD1</v>
+        <v>1CD2</v>
       </c>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
@@ -8873,11 +8887,11 @@
       </c>
       <c r="E129" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F129 )</f>
-        <v>\u1CD2</v>
+        <v>\u1CD3</v>
       </c>
       <c r="F129" s="6" t="str">
         <f aca="false">RIGHT(D129,4)</f>
-        <v>1CD2</v>
+        <v>1CD3</v>
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
@@ -8919,35 +8933,37 @@
       <c r="AR129" s="10"/>
     </row>
     <row r="130" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6" t="s">
+      <c r="A130" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6" t="s">
+      <c r="B130" s="7" t="s">
         <v>339</v>
+      </c>
+      <c r="C130" s="11"/>
+      <c r="D130" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="E130" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F130 )</f>
-        <v>\u1CD3</v>
+        <v>\u20B9</v>
       </c>
       <c r="F130" s="6" t="str">
         <f aca="false">RIGHT(D130,4)</f>
-        <v>1CD3</v>
-      </c>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
-      <c r="K130" s="6"/>
-      <c r="L130" s="6"/>
-      <c r="M130" s="6"/>
-      <c r="N130" s="6"/>
-      <c r="O130" s="6"/>
-      <c r="P130" s="6"/>
-      <c r="Q130" s="6"/>
-      <c r="R130" s="6"/>
-      <c r="S130" s="6"/>
+        <v>20B9</v>
+      </c>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7"/>
+      <c r="O130" s="7"/>
+      <c r="P130" s="7"/>
+      <c r="Q130" s="7"/>
+      <c r="R130" s="7"/>
+      <c r="S130" s="7"/>
       <c r="T130" s="6"/>
       <c r="U130" s="9"/>
       <c r="V130" s="9"/>
@@ -8976,14 +8992,14 @@
     </row>
     <row r="131" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C131" s="11"/>
       <c r="D131" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E131" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F131 )</f>
@@ -9033,37 +9049,39 @@
       <c r="AR131" s="10"/>
     </row>
     <row r="132" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C132" s="11"/>
-      <c r="D132" s="7" t="s">
-        <v>342</v>
+      <c r="C132" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>346</v>
       </c>
       <c r="E132" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F132 )</f>
-        <v>\u20B9</v>
+        <v>\uzwj}</v>
       </c>
       <c r="F132" s="6" t="str">
         <f aca="false">RIGHT(D132,4)</f>
-        <v>20B9</v>
+        <v>zwj}</v>
       </c>
       <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="7"/>
-      <c r="L132" s="7"/>
-      <c r="M132" s="7"/>
-      <c r="N132" s="7"/>
-      <c r="O132" s="7"/>
-      <c r="P132" s="7"/>
-      <c r="Q132" s="7"/>
-      <c r="R132" s="7"/>
-      <c r="S132" s="7"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="14"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="14"/>
+      <c r="P132" s="14"/>
+      <c r="Q132" s="14"/>
+      <c r="R132" s="14"/>
+      <c r="S132" s="14"/>
       <c r="T132" s="6"/>
       <c r="U132" s="9"/>
       <c r="V132" s="9"/>
@@ -9092,38 +9110,38 @@
     </row>
     <row r="133" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>348</v>
-      </c>
+      <c r="D133" s="6"/>
       <c r="E133" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F133 )</f>
-        <v>\uzwj}</v>
-      </c>
-      <c r="F133" s="6" t="str">
+        <v>\u</v>
+      </c>
+      <c r="F133" s="6" t="inlineStr">
         <f aca="false">RIGHT(D133,4)</f>
-        <v>zwj}</v>
-      </c>
-      <c r="G133" s="7"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14"/>
-      <c r="L133" s="14"/>
-      <c r="M133" s="14"/>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G133" s="11"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
       <c r="N133" s="6"/>
-      <c r="O133" s="14"/>
-      <c r="P133" s="14"/>
-      <c r="Q133" s="14"/>
-      <c r="R133" s="14"/>
-      <c r="S133" s="14"/>
+      <c r="O133" s="12"/>
+      <c r="P133" s="12"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="6"/>
       <c r="T133" s="6"/>
       <c r="U133" s="9"/>
       <c r="V133" s="9"/>
@@ -9151,34 +9169,32 @@
       <c r="AR133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="15"/>
+      <c r="B134" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="C134" s="6"/>
+      <c r="D134" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D134" s="6"/>
       <c r="E134" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F134 )</f>
-        <v>\u</v>
+        <v>\u200B</v>
       </c>
       <c r="F134" s="6" t="str">
         <f aca="false">RIGHT(D134,4)</f>
-        <v/>
-      </c>
-      <c r="G134" s="11"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="12"/>
-      <c r="L134" s="12"/>
-      <c r="M134" s="12"/>
+        <v>200B</v>
+      </c>
+      <c r="G134" s="7"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
       <c r="N134" s="6"/>
-      <c r="O134" s="12"/>
-      <c r="P134" s="12"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
       <c r="Q134" s="6"/>
       <c r="R134" s="6"/>
       <c r="S134" s="6"/>
@@ -9219,11 +9235,11 @@
       </c>
       <c r="E135" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F135 )</f>
-        <v>\u200B</v>
+        <v>\u200C</v>
       </c>
       <c r="F135" s="6" t="str">
         <f aca="false">RIGHT(D135,4)</f>
-        <v>200B</v>
+        <v>200C</v>
       </c>
       <c r="G135" s="7"/>
       <c r="H135" s="6"/>
@@ -9275,11 +9291,11 @@
       </c>
       <c r="E136" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F136 )</f>
-        <v>\u200C</v>
+        <v>\u200D</v>
       </c>
       <c r="F136" s="6" t="str">
         <f aca="false">RIGHT(D136,4)</f>
-        <v>200C</v>
+        <v>200D</v>
       </c>
       <c r="G136" s="7"/>
       <c r="H136" s="6"/>
@@ -9320,62 +9336,6 @@
       <c r="AQ136" s="10"/>
       <c r="AR136" s="10"/>
     </row>
-    <row r="137" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="15"/>
-      <c r="B137" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="E137" s="6" t="str">
-        <f aca="false">CONCATENATE("\u",F137 )</f>
-        <v>\u200D</v>
-      </c>
-      <c r="F137" s="6" t="str">
-        <f aca="false">RIGHT(D137,4)</f>
-        <v>200D</v>
-      </c>
-      <c r="G137" s="7"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
-      <c r="L137" s="6"/>
-      <c r="M137" s="6"/>
-      <c r="N137" s="6"/>
-      <c r="O137" s="6"/>
-      <c r="P137" s="6"/>
-      <c r="Q137" s="6"/>
-      <c r="R137" s="6"/>
-      <c r="S137" s="6"/>
-      <c r="T137" s="6"/>
-      <c r="U137" s="9"/>
-      <c r="V137" s="9"/>
-      <c r="W137" s="9"/>
-      <c r="X137" s="9"/>
-      <c r="Y137" s="9"/>
-      <c r="Z137" s="9"/>
-      <c r="AA137" s="9"/>
-      <c r="AB137" s="9"/>
-      <c r="AC137" s="10"/>
-      <c r="AD137" s="10"/>
-      <c r="AE137" s="10"/>
-      <c r="AF137" s="10"/>
-      <c r="AG137" s="10"/>
-      <c r="AH137" s="10"/>
-      <c r="AI137" s="10"/>
-      <c r="AJ137" s="10"/>
-      <c r="AK137" s="10"/>
-      <c r="AL137" s="10"/>
-      <c r="AM137" s="10"/>
-      <c r="AN137" s="10"/>
-      <c r="AO137" s="10"/>
-      <c r="AP137" s="10"/>
-      <c r="AQ137" s="10"/>
-      <c r="AR137" s="10"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/utils/itransdict.xlsx
+++ b/utils/itransdict.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="374">
   <si>
     <t>INPUT</t>
   </si>
@@ -89,7 +89,7 @@
     <t>u+091A</t>
   </si>
   <si>
-    <t>chh | Ch</t>
+    <t>chh </t>
   </si>
   <si>
     <t>cha</t>
@@ -491,187 +491,265 @@
     <t>u+097E</t>
   </si>
   <si>
-    <t>bba</t>
-  </si>
-  <si>
-    <t>u+097F</t>
-  </si>
-  <si>
-    <t>short-a</t>
+    <t>x | kSh</t>
+  </si>
+  <si>
+    <t>ksha</t>
+  </si>
+  <si>
+    <t>क्ष</t>
+  </si>
+  <si>
+    <t>ক্ষ</t>
+  </si>
+  <si>
+    <t>ਕ੍ਸ਼਼</t>
+  </si>
+  <si>
+    <t>ક્ષ</t>
+  </si>
+  <si>
+    <t>କ୍ଷ</t>
+  </si>
+  <si>
+    <t>க்ஷ</t>
+  </si>
+  <si>
+    <t>క్ష</t>
+  </si>
+  <si>
+    <t>ಕ್ಷ</t>
+  </si>
+  <si>
+    <t>ക്ഷ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">?￰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ﾑﾍﾍ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+  </si>
+  <si>
+    <t>kṣ</t>
+  </si>
+  <si>
+    <t>জ্ঞ</t>
+  </si>
+  <si>
+    <t>ਜ੍ਞ</t>
+  </si>
+  <si>
+    <t>જ્ઞ</t>
+  </si>
+  <si>
+    <t>ଜ୍ଞ</t>
+  </si>
+  <si>
+    <t>ஜ்ஞ</t>
+  </si>
+  <si>
+    <t>జ్ఞ</t>
+  </si>
+  <si>
+    <t>ಜ್ಞ</t>
+  </si>
+  <si>
+    <t>ജ്ഞ</t>
+  </si>
+  <si>
+    <t>jñ</t>
+  </si>
+  <si>
+    <t>ஶ்ரீ</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>vowel</t>
+  </si>
+  <si>
+    <t>u+0905</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>u+0906</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>u+0907</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>u+0908</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>u+0909</t>
+  </si>
+  <si>
+    <t>uu</t>
+  </si>
+  <si>
+    <t>u+090A</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>RRI</t>
+  </si>
+  <si>
+    <t>vocalic-r</t>
+  </si>
+  <si>
+    <t>u+090B</t>
+  </si>
+  <si>
+    <t>R^i</t>
+  </si>
+  <si>
+    <t>LLI</t>
+  </si>
+  <si>
+    <t>vocalic-l</t>
+  </si>
+  <si>
+    <t>u+090C</t>
+  </si>
+  <si>
+    <t>L^i</t>
+  </si>
+  <si>
+    <t>vocalic-rr</t>
+  </si>
+  <si>
+    <t>u+0960</t>
+  </si>
+  <si>
+    <t>vocalic-ll</t>
+  </si>
+  <si>
+    <t>u+0961</t>
+  </si>
+  <si>
+    <t>a.e</t>
+  </si>
+  <si>
+    <t>candra-a</t>
+  </si>
+  <si>
+    <t>u+0972</t>
+  </si>
+  <si>
+    <t>a.c</t>
+  </si>
+  <si>
+    <t>candra-e</t>
+  </si>
+  <si>
+    <t>u+090D</t>
+  </si>
+  <si>
+    <t>^e</t>
+  </si>
+  <si>
+    <t>short-e</t>
+  </si>
+  <si>
+    <t>u+090E</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>u+090F</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>u+0910</t>
+  </si>
+  <si>
+    <t>A.c</t>
+  </si>
+  <si>
+    <t>candra-o</t>
+  </si>
+  <si>
+    <t>u+0911</t>
+  </si>
+  <si>
+    <t>^o</t>
+  </si>
+  <si>
+    <t>short-o</t>
+  </si>
+  <si>
+    <t>u+0912</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>u+0913</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>u+0914</t>
+  </si>
+  <si>
+    <t>dv-short-a</t>
+  </si>
+  <si>
+    <t>dependent-vowel</t>
   </si>
   <si>
     <t>u+0904</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>vowel</t>
-  </si>
-  <si>
-    <t>u+0905</t>
-  </si>
-  <si>
-    <t>aa | A</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>u+0906</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>u+0907</t>
-  </si>
-  <si>
-    <t>ii | I | ee</t>
-  </si>
-  <si>
-    <t>ii</t>
-  </si>
-  <si>
-    <t>u+0908</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>u+0909</t>
-  </si>
-  <si>
-    <t>uu | U</t>
-  </si>
-  <si>
-    <t>uu</t>
-  </si>
-  <si>
-    <t>u+090A</t>
-  </si>
-  <si>
-    <t>RRi | R^i</t>
-  </si>
-  <si>
-    <t>vocalic-r</t>
-  </si>
-  <si>
-    <t>u+090B</t>
-  </si>
-  <si>
-    <t>LLi | L^i</t>
-  </si>
-  <si>
-    <t>vocalic-l</t>
-  </si>
-  <si>
-    <t>u+090C</t>
-  </si>
-  <si>
-    <t>RRI</t>
-  </si>
-  <si>
-    <t>vocalic-rr</t>
-  </si>
-  <si>
-    <t>u+0960</t>
-  </si>
-  <si>
-    <t>LLI</t>
-  </si>
-  <si>
-    <t>vocalic-ll</t>
-  </si>
-  <si>
-    <t>u+0961</t>
-  </si>
-  <si>
-    <t>a.e</t>
-  </si>
-  <si>
-    <t>candra-a</t>
-  </si>
-  <si>
-    <t>u+0972</t>
-  </si>
-  <si>
-    <t>a.c</t>
-  </si>
-  <si>
-    <t>candra-e</t>
-  </si>
-  <si>
-    <t>u+090D</t>
-  </si>
-  <si>
-    <t>^e</t>
-  </si>
-  <si>
-    <t>short-e</t>
-  </si>
-  <si>
-    <t>u+090E</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>u+090F</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>u+0910</t>
-  </si>
-  <si>
-    <t>A.c</t>
-  </si>
-  <si>
-    <t>candra-o</t>
-  </si>
-  <si>
-    <t>u+0911</t>
-  </si>
-  <si>
-    <t>^o</t>
-  </si>
-  <si>
-    <t>short-o</t>
-  </si>
-  <si>
-    <t>u+0912</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>u+0913</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>oo</t>
-  </si>
-  <si>
-    <t>au</t>
-  </si>
-  <si>
-    <t>u+0914</t>
-  </si>
-  <si>
-    <t>dv-short-a</t>
-  </si>
-  <si>
-    <t>dependent-vowel</t>
   </si>
   <si>
     <t>dv-a</t>
@@ -1089,7 +1167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1174,6 +1252,18 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="FreeSans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1223,7 +1313,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1288,6 +1378,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1305,14 +1407,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR136"/>
+  <dimension ref="A1:AR143"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F95" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
+      <selection pane="bottomRight" activeCell="C114" activeCellId="0" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1806,24 +1908,24 @@
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F9 )</f>
-        <v>\u091C</v>
+        <v>\u091B</v>
       </c>
       <c r="F9" s="6" t="str">
         <f aca="false">RIGHT(D9,4)</f>
-        <v>091C</v>
+        <v>091B</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
@@ -1866,24 +1968,24 @@
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F10 )</f>
-        <v>\u091D</v>
+        <v>\u091C</v>
       </c>
       <c r="F10" s="6" t="str">
         <f aca="false">RIGHT(D10,4)</f>
-        <v>091D</v>
+        <v>091C</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
@@ -1895,7 +1997,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -1926,24 +2028,24 @@
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F11 )</f>
-        <v>\u091E</v>
+        <v>\u091D</v>
       </c>
       <c r="F11" s="6" t="str">
         <f aca="false">RIGHT(D11,4)</f>
-        <v>091E</v>
+        <v>091D</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="8"/>
@@ -1955,7 +2057,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="8"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -1986,24 +2088,24 @@
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F12 )</f>
-        <v>\u091F</v>
+        <v>\u091E</v>
       </c>
       <c r="F12" s="6" t="str">
         <f aca="false">RIGHT(D12,4)</f>
-        <v>091F</v>
+        <v>091E</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
@@ -2046,24 +2148,24 @@
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F13 )</f>
-        <v>\u0920</v>
+        <v>\u091F</v>
       </c>
       <c r="F13" s="6" t="str">
         <f aca="false">RIGHT(D13,4)</f>
-        <v>0920</v>
+        <v>091F</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
@@ -2106,24 +2208,24 @@
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F14 )</f>
-        <v>\u0921</v>
+        <v>\u0920</v>
       </c>
       <c r="F14" s="6" t="str">
         <f aca="false">RIGHT(D14,4)</f>
-        <v>0921</v>
+        <v>0920</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
@@ -2135,7 +2237,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -2166,24 +2268,24 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F15 )</f>
-        <v>\u0922</v>
+        <v>\u0921</v>
       </c>
       <c r="F15" s="6" t="str">
         <f aca="false">RIGHT(D15,4)</f>
-        <v>0922</v>
+        <v>0921</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="8"/>
@@ -2195,7 +2297,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="8"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -2226,24 +2328,24 @@
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F16 )</f>
-        <v>\u0923</v>
+        <v>\u0922</v>
       </c>
       <c r="F16" s="6" t="str">
         <f aca="false">RIGHT(D16,4)</f>
-        <v>0923</v>
+        <v>0922</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
@@ -2286,24 +2388,24 @@
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E17" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F17 )</f>
-        <v>\u0924</v>
+        <v>\u0923</v>
       </c>
       <c r="F17" s="6" t="str">
         <f aca="false">RIGHT(D17,4)</f>
-        <v>0924</v>
+        <v>0923</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8"/>
@@ -2346,24 +2448,24 @@
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F18 )</f>
-        <v>\u0925</v>
+        <v>\u0924</v>
       </c>
       <c r="F18" s="6" t="str">
         <f aca="false">RIGHT(D18,4)</f>
-        <v>0925</v>
+        <v>0924</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
@@ -2406,24 +2508,24 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F19 )</f>
-        <v>\u0926</v>
+        <v>\u0925</v>
       </c>
       <c r="F19" s="6" t="str">
         <f aca="false">RIGHT(D19,4)</f>
-        <v>0926</v>
+        <v>0925</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
@@ -2466,24 +2568,24 @@
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E20" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F20 )</f>
-        <v>\u0927</v>
+        <v>\u0926</v>
       </c>
       <c r="F20" s="6" t="str">
         <f aca="false">RIGHT(D20,4)</f>
-        <v>0927</v>
+        <v>0926</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="8"/>
@@ -2526,24 +2628,24 @@
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E21" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F21 )</f>
-        <v>\u0928</v>
+        <v>\u0927</v>
       </c>
       <c r="F21" s="6" t="str">
         <f aca="false">RIGHT(D21,4)</f>
-        <v>0928</v>
+        <v>0927</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="8"/>
@@ -2586,34 +2688,34 @@
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E22" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F22 )</f>
-        <v>\u0929</v>
+        <v>\u0928</v>
       </c>
       <c r="F22" s="6" t="str">
         <f aca="false">RIGHT(D22,4)</f>
-        <v>0929</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+        <v>0928</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="12"/>
+      <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -2646,36 +2748,36 @@
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E23" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F23 )</f>
-        <v>\u092A</v>
+        <v>\u0929</v>
       </c>
       <c r="F23" s="6" t="str">
         <f aca="false">RIGHT(D23,4)</f>
-        <v>092A</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+        <v>0929</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="8"/>
+      <c r="O23" s="12"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
@@ -2706,24 +2808,24 @@
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E24" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F24 )</f>
-        <v>\u092B</v>
+        <v>\u092A</v>
       </c>
       <c r="F24" s="6" t="str">
         <f aca="false">RIGHT(D24,4)</f>
-        <v>092B</v>
+        <v>092A</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="8"/>
@@ -2735,7 +2837,7 @@
       <c r="N24" s="6"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="6"/>
+      <c r="Q24" s="8"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
@@ -2766,24 +2868,24 @@
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E25" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F25 )</f>
-        <v>\u092C</v>
+        <v>\u092B</v>
       </c>
       <c r="F25" s="6" t="str">
         <f aca="false">RIGHT(D25,4)</f>
-        <v>092C</v>
+        <v>092B</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
@@ -2826,24 +2928,24 @@
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E26" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F26 )</f>
-        <v>\u092D</v>
+        <v>\u092C</v>
       </c>
       <c r="F26" s="6" t="str">
         <f aca="false">RIGHT(D26,4)</f>
-        <v>092D</v>
+        <v>092C</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="8"/>
@@ -2886,24 +2988,24 @@
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E27" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F27 )</f>
-        <v>\u092E</v>
+        <v>\u092D</v>
       </c>
       <c r="F27" s="6" t="str">
         <f aca="false">RIGHT(D27,4)</f>
-        <v>092E</v>
+        <v>092D</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="8"/>
@@ -2946,24 +3048,24 @@
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E28" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F28 )</f>
-        <v>\u092F</v>
+        <v>\u092E</v>
       </c>
       <c r="F28" s="6" t="str">
         <f aca="false">RIGHT(D28,4)</f>
-        <v>092F</v>
+        <v>092E</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="8"/>
@@ -3006,24 +3108,24 @@
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E29" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F29 )</f>
-        <v>\u0930</v>
+        <v>\u092F</v>
       </c>
       <c r="F29" s="6" t="str">
         <f aca="false">RIGHT(D29,4)</f>
-        <v>0930</v>
+        <v>092F</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
@@ -3066,29 +3168,29 @@
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E30" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F30 )</f>
-        <v>\u0931</v>
+        <v>\u0930</v>
       </c>
       <c r="F30" s="6" t="str">
         <f aca="false">RIGHT(D30,4)</f>
-        <v>0931</v>
-      </c>
-      <c r="G30" s="11"/>
+        <v>0930</v>
+      </c>
+      <c r="G30" s="7"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -3126,29 +3228,29 @@
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E31" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F31 )</f>
-        <v>\u0932</v>
+        <v>\u0931</v>
       </c>
       <c r="F31" s="6" t="str">
         <f aca="false">RIGHT(D31,4)</f>
-        <v>0932</v>
-      </c>
-      <c r="G31" s="7"/>
+        <v>0931</v>
+      </c>
+      <c r="G31" s="11"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -3186,27 +3288,27 @@
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E32" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F32 )</f>
-        <v>\u0933</v>
+        <v>\u0932</v>
       </c>
       <c r="F32" s="6" t="str">
         <f aca="false">RIGHT(D32,4)</f>
-        <v>0933</v>
+        <v>0932</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="12"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -3246,38 +3348,38 @@
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E33" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F33 )</f>
-        <v>\u0934</v>
+        <v>\u0933</v>
       </c>
       <c r="F33" s="6" t="str">
         <f aca="false">RIGHT(D33,4)</f>
-        <v>0934</v>
-      </c>
-      <c r="G33" s="11"/>
+        <v>0933</v>
+      </c>
+      <c r="G33" s="7"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="12"/>
+      <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="6"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
@@ -3306,38 +3408,38 @@
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E34" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F34 )</f>
-        <v>\u0935</v>
+        <v>\u0934</v>
       </c>
       <c r="F34" s="6" t="str">
         <f aca="false">RIGHT(D34,4)</f>
-        <v>0935</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+        <v>0934</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="8"/>
+      <c r="O34" s="12"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
       <c r="T34" s="6"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
@@ -3366,24 +3468,24 @@
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E35" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F35 )</f>
-        <v>\u0936</v>
+        <v>\u0935</v>
       </c>
       <c r="F35" s="6" t="str">
         <f aca="false">RIGHT(D35,4)</f>
-        <v>0936</v>
+        <v>0935</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8"/>
@@ -3426,28 +3528,28 @@
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E36" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F36 )</f>
-        <v>\u0937</v>
+        <v>\u0936</v>
       </c>
       <c r="F36" s="6" t="str">
         <f aca="false">RIGHT(D36,4)</f>
-        <v>0937</v>
+        <v>0936</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="12"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -3486,28 +3588,28 @@
     </row>
     <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E37" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F37 )</f>
-        <v>\u0938</v>
+        <v>\u0937</v>
       </c>
       <c r="F37" s="6" t="str">
         <f aca="false">RIGHT(D37,4)</f>
-        <v>0938</v>
+        <v>0937</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="I37" s="12"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -3546,24 +3648,24 @@
     </row>
     <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E38" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F38 )</f>
-        <v>\u0939</v>
+        <v>\u0938</v>
       </c>
       <c r="F38" s="6" t="str">
         <f aca="false">RIGHT(D38,4)</f>
-        <v>0939</v>
+        <v>0938</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="8"/>
@@ -3604,37 +3706,37 @@
       <c r="AQ38" s="10"/>
       <c r="AR38" s="10"/>
     </row>
-    <row r="39" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E39" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F39 )</f>
-        <v>\uज्ञ</v>
+        <v>\u0939</v>
       </c>
       <c r="F39" s="6" t="str">
         <f aca="false">RIGHT(D39,4)</f>
-        <v>ज्ञ</v>
-      </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
+        <v>0939</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
@@ -3664,28 +3766,28 @@
       <c r="AQ39" s="10"/>
       <c r="AR39" s="10"/>
     </row>
-    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="E40" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F40 )</f>
-        <v>\u</v>
-      </c>
-      <c r="F40" s="6" t="inlineStr">
+        <v>\uज्ञ</v>
+      </c>
+      <c r="F40" s="6" t="str">
         <f aca="false">RIGHT(D40,4)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G40" s="11"/>
+        <v>ज्ञ</v>
+      </c>
+      <c r="G40" s="13"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
@@ -3726,34 +3828,32 @@
     </row>
     <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="D41" s="6"/>
       <c r="E41" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F41 )</f>
-        <v>\u0958</v>
+        <v>\u</v>
       </c>
       <c r="F41" s="6" t="str">
         <f aca="false">RIGHT(D41,4)</f>
-        <v>0958</v>
+        <v/>
       </c>
       <c r="G41" s="11"/>
-      <c r="H41" s="8"/>
+      <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="8"/>
+      <c r="O41" s="12"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
@@ -3786,28 +3886,28 @@
     </row>
     <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E42" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F42 )</f>
-        <v>\u0959</v>
+        <v>\u0958</v>
       </c>
       <c r="F42" s="6" t="str">
         <f aca="false">RIGHT(D42,4)</f>
-        <v>0959</v>
+        <v>0958</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="I42" s="12"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="12"/>
@@ -3846,24 +3946,24 @@
     </row>
     <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E43" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F43 )</f>
-        <v>\u095A</v>
+        <v>\u0959</v>
       </c>
       <c r="F43" s="6" t="str">
         <f aca="false">RIGHT(D43,4)</f>
-        <v>095A</v>
+        <v>0959</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="8"/>
@@ -3906,29 +4006,29 @@
     </row>
     <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E44" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F44 )</f>
-        <v>\u095B</v>
+        <v>\u095A</v>
       </c>
       <c r="F44" s="6" t="str">
         <f aca="false">RIGHT(D44,4)</f>
-        <v>095B</v>
+        <v>095A</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="14"/>
+      <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="12"/>
       <c r="M44" s="12"/>
@@ -3966,30 +4066,30 @@
     </row>
     <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E45" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F45 )</f>
-        <v>\u095C</v>
+        <v>\u095B</v>
       </c>
       <c r="F45" s="6" t="str">
         <f aca="false">RIGHT(D45,4)</f>
-        <v>095C</v>
+        <v>095B</v>
       </c>
       <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="8"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="6"/>
@@ -4026,30 +4126,30 @@
     </row>
     <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E46" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F46 )</f>
-        <v>\u095D</v>
+        <v>\u095C</v>
       </c>
       <c r="F46" s="6" t="str">
         <f aca="false">RIGHT(D46,4)</f>
-        <v>095D</v>
+        <v>095C</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="12"/>
+      <c r="K46" s="14"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
       <c r="N46" s="6"/>
@@ -4086,30 +4186,30 @@
     </row>
     <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E47" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F47 )</f>
-        <v>\u095E</v>
+        <v>\u095D</v>
       </c>
       <c r="F47" s="6" t="str">
         <f aca="false">RIGHT(D47,4)</f>
-        <v>095E</v>
+        <v>095D</v>
       </c>
       <c r="G47" s="11"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="6"/>
@@ -4146,34 +4246,34 @@
     </row>
     <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E48" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F48 )</f>
-        <v>\u095F</v>
+        <v>\u095E</v>
       </c>
       <c r="F48" s="6" t="str">
         <f aca="false">RIGHT(D48,4)</f>
-        <v>095F</v>
+        <v>095E</v>
       </c>
       <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
       <c r="N48" s="6"/>
-      <c r="O48" s="12"/>
+      <c r="O48" s="8"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
@@ -4205,23 +4305,25 @@
       <c r="AR48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15"/>
+      <c r="A49" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="B49" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E49" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F49 )</f>
-        <v>\u0978</v>
+        <v>\u095F</v>
       </c>
       <c r="F49" s="6" t="str">
         <f aca="false">RIGHT(D49,4)</f>
-        <v>0978</v>
+        <v>095F</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="12"/>
@@ -4265,21 +4367,21 @@
     <row r="50" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15"/>
       <c r="B50" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E50" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F50 )</f>
-        <v>\u0979</v>
+        <v>\u0978</v>
       </c>
       <c r="F50" s="6" t="str">
         <f aca="false">RIGHT(D50,4)</f>
-        <v>0979</v>
+        <v>0978</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="12"/>
@@ -4323,21 +4425,21 @@
     <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15"/>
       <c r="B51" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E51" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F51 )</f>
-        <v>\u097A</v>
+        <v>\u0979</v>
       </c>
       <c r="F51" s="6" t="str">
         <f aca="false">RIGHT(D51,4)</f>
-        <v>097A</v>
+        <v>0979</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
@@ -4381,21 +4483,21 @@
     <row r="52" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15"/>
       <c r="B52" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E52" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F52 )</f>
-        <v>\u097B</v>
+        <v>\u097A</v>
       </c>
       <c r="F52" s="6" t="str">
         <f aca="false">RIGHT(D52,4)</f>
-        <v>097B</v>
+        <v>097A</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="12"/>
@@ -4439,21 +4541,21 @@
     <row r="53" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15"/>
       <c r="B53" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E53" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F53 )</f>
-        <v>\u097C</v>
+        <v>\u097B</v>
       </c>
       <c r="F53" s="6" t="str">
         <f aca="false">RIGHT(D53,4)</f>
-        <v>097C</v>
+        <v>097B</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="12"/>
@@ -4497,21 +4599,21 @@
     <row r="54" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15"/>
       <c r="B54" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E54" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F54 )</f>
-        <v>\u097E</v>
+        <v>\u097C</v>
       </c>
       <c r="F54" s="6" t="str">
         <f aca="false">RIGHT(D54,4)</f>
-        <v>097E</v>
+        <v>097C</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="12"/>
@@ -4555,21 +4657,21 @@
     <row r="55" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15"/>
       <c r="B55" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E55" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F55 )</f>
-        <v>\u097F</v>
+        <v>\u097E</v>
       </c>
       <c r="F55" s="6" t="str">
         <f aca="false">RIGHT(D55,4)</f>
-        <v>097F</v>
+        <v>097E</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="12"/>
@@ -4610,202 +4712,248 @@
       <c r="AQ55" s="10"/>
       <c r="AR55" s="10"/>
     </row>
-    <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6" t="s">
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6" t="s">
+      <c r="E56" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="H56" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E56" s="6" t="str">
-        <f aca="false">CONCATENATE("\u",F56 )</f>
-        <v>\u0904</v>
-      </c>
-      <c r="F56" s="6" t="str">
-        <f aca="false">RIGHT(D56,4)</f>
-        <v>0904</v>
-      </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
-      <c r="AB56" s="9"/>
-      <c r="AC56" s="10"/>
-      <c r="AD56" s="10"/>
-      <c r="AE56" s="10"/>
-      <c r="AF56" s="10"/>
-      <c r="AG56" s="10"/>
-      <c r="AH56" s="10"/>
-      <c r="AI56" s="10"/>
-      <c r="AJ56" s="10"/>
-      <c r="AK56" s="10"/>
-      <c r="AL56" s="10"/>
-      <c r="AM56" s="10"/>
-      <c r="AN56" s="10"/>
-      <c r="AO56" s="10"/>
-      <c r="AP56" s="10"/>
-      <c r="AQ56" s="10"/>
-      <c r="AR56" s="10"/>
-    </row>
-    <row r="57" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
+      <c r="I56" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="6" t="s">
+      <c r="J56" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="K56" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E57" s="6" t="str">
-        <f aca="false">CONCATENATE("\u",F57 )</f>
-        <v>\u0905</v>
-      </c>
-      <c r="F57" s="6" t="str">
-        <f aca="false">RIGHT(D57,4)</f>
-        <v>0905</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="9"/>
-      <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="9"/>
-      <c r="Y57" s="9"/>
-      <c r="Z57" s="9"/>
-      <c r="AA57" s="9"/>
-      <c r="AB57" s="9"/>
-      <c r="AC57" s="10"/>
-      <c r="AD57" s="10"/>
-      <c r="AE57" s="10"/>
-      <c r="AF57" s="10"/>
-      <c r="AG57" s="10"/>
-      <c r="AH57" s="10"/>
-      <c r="AI57" s="10"/>
-      <c r="AJ57" s="10"/>
-      <c r="AK57" s="10"/>
-      <c r="AL57" s="10"/>
-      <c r="AM57" s="10"/>
-      <c r="AN57" s="10"/>
-      <c r="AO57" s="10"/>
-      <c r="AP57" s="10"/>
-      <c r="AQ57" s="10"/>
-      <c r="AR57" s="10"/>
-    </row>
-    <row r="58" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
+      <c r="L56" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="M56" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="N56" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="O56" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E58" s="6" t="str">
-        <f aca="false">CONCATENATE("\u",F58 )</f>
-        <v>\u0906</v>
-      </c>
-      <c r="F58" s="6" t="str">
-        <f aca="false">RIGHT(D58,4)</f>
-        <v>0906</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="9"/>
-      <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="9"/>
-      <c r="Y58" s="9"/>
-      <c r="Z58" s="9"/>
-      <c r="AA58" s="9"/>
-      <c r="AB58" s="9"/>
-      <c r="AC58" s="10"/>
-      <c r="AD58" s="10"/>
-      <c r="AE58" s="10"/>
-      <c r="AF58" s="10"/>
-      <c r="AG58" s="10"/>
-      <c r="AH58" s="10"/>
-      <c r="AI58" s="10"/>
-      <c r="AJ58" s="10"/>
-      <c r="AK58" s="10"/>
-      <c r="AL58" s="10"/>
-      <c r="AM58" s="10"/>
-      <c r="AN58" s="10"/>
-      <c r="AO58" s="10"/>
-      <c r="AP58" s="10"/>
-      <c r="AQ58" s="10"/>
-      <c r="AR58" s="10"/>
+      <c r="P56" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q56" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="R56" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="S56" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18"/>
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="18"/>
+      <c r="AA56" s="18"/>
+      <c r="AB56" s="18"/>
+      <c r="AC56" s="18"/>
+      <c r="AD56" s="18"/>
+      <c r="AE56" s="18"/>
+      <c r="AF56" s="18"/>
+      <c r="AG56" s="18"/>
+      <c r="AH56" s="18"/>
+      <c r="AI56" s="18"/>
+      <c r="AJ56" s="18"/>
+      <c r="AK56" s="18"/>
+      <c r="AL56" s="18"/>
+      <c r="AM56" s="18"/>
+      <c r="AN56" s="18"/>
+      <c r="AO56" s="18"/>
+      <c r="AP56" s="18"/>
+      <c r="AQ56" s="18"/>
+      <c r="AR56" s="18"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M57" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="N57" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="O57" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="P57" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q57" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="R57" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="S57" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
+      <c r="Y57" s="18"/>
+      <c r="Z57" s="18"/>
+      <c r="AA57" s="18"/>
+      <c r="AB57" s="18"/>
+      <c r="AC57" s="18"/>
+      <c r="AD57" s="18"/>
+      <c r="AE57" s="18"/>
+      <c r="AF57" s="18"/>
+      <c r="AG57" s="18"/>
+      <c r="AH57" s="18"/>
+      <c r="AI57" s="18"/>
+      <c r="AJ57" s="18"/>
+      <c r="AK57" s="18"/>
+      <c r="AL57" s="18"/>
+      <c r="AM57" s="18"/>
+      <c r="AN57" s="18"/>
+      <c r="AO57" s="18"/>
+      <c r="AP57" s="18"/>
+      <c r="AQ57" s="18"/>
+      <c r="AR57" s="18"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="18"/>
+      <c r="Y58" s="18"/>
+      <c r="Z58" s="18"/>
+      <c r="AA58" s="18"/>
+      <c r="AB58" s="18"/>
+      <c r="AC58" s="18"/>
+      <c r="AD58" s="18"/>
+      <c r="AE58" s="18"/>
+      <c r="AF58" s="18"/>
+      <c r="AG58" s="18"/>
+      <c r="AH58" s="18"/>
+      <c r="AI58" s="18"/>
+      <c r="AJ58" s="18"/>
+      <c r="AK58" s="18"/>
+      <c r="AL58" s="18"/>
+      <c r="AM58" s="18"/>
+      <c r="AN58" s="18"/>
+      <c r="AO58" s="18"/>
+      <c r="AP58" s="18"/>
+      <c r="AQ58" s="18"/>
+      <c r="AR58" s="18"/>
     </row>
     <row r="59" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E59" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F59 )</f>
-        <v>\u0907</v>
+        <v>\u0905</v>
       </c>
       <c r="F59" s="6" t="str">
         <f aca="false">RIGHT(D59,4)</f>
-        <v>0907</v>
+        <v>0905</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="8"/>
@@ -4817,7 +4965,7 @@
       <c r="N59" s="6"/>
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
-      <c r="Q59" s="14"/>
+      <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
@@ -4848,24 +4996,24 @@
     </row>
     <row r="60" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E60" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F60 )</f>
-        <v>\u0908</v>
+        <v>\u0906</v>
       </c>
       <c r="F60" s="6" t="str">
         <f aca="false">RIGHT(D60,4)</f>
-        <v>0908</v>
+        <v>0906</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="8"/>
@@ -4877,7 +5025,7 @@
       <c r="N60" s="6"/>
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
-      <c r="Q60" s="14"/>
+      <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
@@ -4908,24 +5056,24 @@
     </row>
     <row r="61" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E61" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F61 )</f>
-        <v>\u0909</v>
+        <v>\u0906</v>
       </c>
       <c r="F61" s="6" t="str">
         <f aca="false">RIGHT(D61,4)</f>
-        <v>0909</v>
+        <v>0906</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="8"/>
@@ -4968,24 +5116,24 @@
     </row>
     <row r="62" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E62" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F62 )</f>
-        <v>\u090A</v>
+        <v>\u0907</v>
       </c>
       <c r="F62" s="6" t="str">
         <f aca="false">RIGHT(D62,4)</f>
-        <v>090A</v>
+        <v>0907</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="8"/>
@@ -4997,7 +5145,7 @@
       <c r="N62" s="6"/>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
-      <c r="Q62" s="6"/>
+      <c r="Q62" s="14"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
@@ -5028,32 +5176,32 @@
     </row>
     <row r="63" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E63" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F63 )</f>
-        <v>\u090B</v>
+        <v>\u0908</v>
       </c>
       <c r="F63" s="6" t="str">
         <f aca="false">RIGHT(D63,4)</f>
-        <v>090B</v>
+        <v>0908</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="12"/>
+      <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
       <c r="N63" s="6"/>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
@@ -5088,32 +5236,32 @@
     </row>
     <row r="64" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="D64" s="6" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E64" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F64 )</f>
-        <v>\u090C</v>
+        <v>\u0909</v>
       </c>
       <c r="F64" s="6" t="str">
         <f aca="false">RIGHT(D64,4)</f>
-        <v>090C</v>
+        <v>0909</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="8"/>
-      <c r="I64" s="12"/>
+      <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
       <c r="N64" s="6"/>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
@@ -5148,32 +5296,32 @@
     </row>
     <row r="65" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>163</v>
+        <v>193</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E65" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F65 )</f>
-        <v>\u0960</v>
+        <v>\u090A</v>
       </c>
       <c r="F65" s="6" t="str">
         <f aca="false">RIGHT(D65,4)</f>
-        <v>0960</v>
+        <v>090A</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="12"/>
+      <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
       <c r="N65" s="6"/>
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
@@ -5208,32 +5356,32 @@
     </row>
     <row r="66" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>163</v>
+        <v>193</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E66" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F66 )</f>
-        <v>\u0961</v>
+        <v>\u090A</v>
       </c>
       <c r="F66" s="6" t="str">
         <f aca="false">RIGHT(D66,4)</f>
-        <v>0961</v>
+        <v>090A</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="8"/>
-      <c r="I66" s="12"/>
+      <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
       <c r="N66" s="6"/>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
@@ -5268,34 +5416,36 @@
     </row>
     <row r="67" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="D67" s="6" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E67" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F67 )</f>
-        <v>\u0972</v>
+        <v>\u090B</v>
       </c>
       <c r="F67" s="6" t="str">
         <f aca="false">RIGHT(D67,4)</f>
-        <v>0972</v>
-      </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="12"/>
+        <v>090B</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="8"/>
       <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="6"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="14"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
@@ -5326,36 +5476,36 @@
     </row>
     <row r="68" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E68" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F68 )</f>
-        <v>\u090D</v>
+        <v>\u090B</v>
       </c>
       <c r="F68" s="6" t="str">
         <f aca="false">RIGHT(D68,4)</f>
-        <v>090D</v>
-      </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="12"/>
+        <v>090B</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="8"/>
       <c r="I68" s="12"/>
       <c r="J68" s="8"/>
-      <c r="K68" s="12"/>
+      <c r="K68" s="8"/>
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
       <c r="N68" s="6"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="6"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="14"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
@@ -5386,35 +5536,35 @@
     </row>
     <row r="69" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E69" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F69 )</f>
-        <v>\u090E</v>
+        <v>\u090C</v>
       </c>
       <c r="F69" s="6" t="str">
         <f aca="false">RIGHT(D69,4)</f>
-        <v>090E</v>
-      </c>
-      <c r="G69" s="11"/>
-      <c r="H69" s="12"/>
+        <v>090C</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="8"/>
       <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
       <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
@@ -5446,32 +5596,32 @@
     </row>
     <row r="70" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E70" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F70 )</f>
-        <v>\u090F</v>
+        <v>\u090C</v>
       </c>
       <c r="F70" s="6" t="str">
         <f aca="false">RIGHT(D70,4)</f>
-        <v>090F</v>
+        <v>090C</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="8"/>
       <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
+      <c r="J70" s="8"/>
       <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
       <c r="N70" s="6"/>
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
@@ -5506,32 +5656,32 @@
     </row>
     <row r="71" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D71" s="6"/>
+        <v>204</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="E71" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F71 )</f>
-        <v>\u</v>
-      </c>
-      <c r="F71" s="6" t="inlineStr">
+        <v>\u0960</v>
+      </c>
+      <c r="F71" s="6" t="str">
         <f aca="false">RIGHT(D71,4)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="8"/>
+        <v>0960</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="12"/>
       <c r="J71" s="8"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
       <c r="N71" s="6"/>
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
@@ -5566,32 +5716,32 @@
     </row>
     <row r="72" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>163</v>
+        <v>206</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E72" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F72 )</f>
-        <v>\u0910</v>
+        <v>\u0961</v>
       </c>
       <c r="F72" s="6" t="str">
         <f aca="false">RIGHT(D72,4)</f>
-        <v>0910</v>
+        <v>0961</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
+      <c r="I72" s="12"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
       <c r="N72" s="6"/>
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
@@ -5626,29 +5776,27 @@
     </row>
     <row r="73" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>163</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C73" s="6"/>
       <c r="D73" s="6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E73" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F73 )</f>
-        <v>\u0911</v>
+        <v>\u0972</v>
       </c>
       <c r="F73" s="6" t="str">
         <f aca="false">RIGHT(D73,4)</f>
-        <v>0911</v>
+        <v>0972</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
-      <c r="J73" s="8"/>
+      <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
@@ -5686,35 +5834,35 @@
     </row>
     <row r="74" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E74" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F74 )</f>
-        <v>\u0912</v>
+        <v>\u090D</v>
       </c>
       <c r="F74" s="6" t="str">
         <f aca="false">RIGHT(D74,4)</f>
-        <v>0912</v>
+        <v>090D</v>
       </c>
       <c r="G74" s="11"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
+      <c r="J74" s="8"/>
       <c r="K74" s="12"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
       <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
@@ -5746,35 +5894,35 @@
     </row>
     <row r="75" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E75" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F75 )</f>
-        <v>\u0913</v>
+        <v>\u090E</v>
       </c>
       <c r="F75" s="6" t="str">
         <f aca="false">RIGHT(D75,4)</f>
-        <v>0913</v>
-      </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
+        <v>090E</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
       <c r="N75" s="6"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
@@ -5806,30 +5954,30 @@
     </row>
     <row r="76" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D76" s="6"/>
+        <v>182</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="E76" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F76 )</f>
-        <v>\u</v>
-      </c>
-      <c r="F76" s="6" t="inlineStr">
+        <v>\u090F</v>
+      </c>
+      <c r="F76" s="6" t="str">
         <f aca="false">RIGHT(D76,4)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G76" s="11"/>
-      <c r="H76" s="12"/>
+        <v>090F</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="8"/>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
+      <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
       <c r="N76" s="6"/>
@@ -5866,36 +6014,34 @@
     </row>
     <row r="77" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>216</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D77" s="6"/>
       <c r="E77" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F77 )</f>
-        <v>\u0914</v>
+        <v>\u</v>
       </c>
       <c r="F77" s="6" t="str">
         <f aca="false">RIGHT(D77,4)</f>
-        <v>0914</v>
-      </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="8"/>
+        <v/>
+      </c>
+      <c r="G77" s="11"/>
+      <c r="H77" s="12"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
+      <c r="K77" s="12"/>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
       <c r="N77" s="6"/>
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
-      <c r="Q77" s="14"/>
+      <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
@@ -5925,34 +6071,36 @@
       <c r="AR77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6"/>
+      <c r="A78" s="6" t="s">
+        <v>221</v>
+      </c>
       <c r="B78" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D78" s="6"/>
+        <v>182</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="E78" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F78 )</f>
-        <v>\u</v>
-      </c>
-      <c r="F78" s="6" t="inlineStr">
+        <v>\u0910</v>
+      </c>
+      <c r="F78" s="6" t="str">
         <f aca="false">RIGHT(D78,4)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
+        <v>0910</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
       <c r="N78" s="6"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
@@ -5983,28 +6131,30 @@
       <c r="AR78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6"/>
+      <c r="A79" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="B79" s="6" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D79" s="6"/>
+        <v>182</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>225</v>
+      </c>
       <c r="E79" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F79 )</f>
-        <v>\u</v>
-      </c>
-      <c r="F79" s="6" t="inlineStr">
+        <v>\u0911</v>
+      </c>
+      <c r="F79" s="6" t="str">
         <f aca="false">RIGHT(D79,4)</f>
-        <is>
-          <t/>
-        </is>
+        <v>0911</v>
       </c>
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
+      <c r="J79" s="8"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
@@ -6042,36 +6192,36 @@
     </row>
     <row r="80" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E80" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F80 )</f>
-        <v>\u093E</v>
+        <v>\u0912</v>
       </c>
       <c r="F80" s="6" t="str">
         <f aca="false">RIGHT(D80,4)</f>
-        <v>093E</v>
-      </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
+        <v>0912</v>
+      </c>
+      <c r="G80" s="11"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
       <c r="N80" s="6"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="14"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
@@ -6102,24 +6252,24 @@
     </row>
     <row r="81" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E81" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F81 )</f>
-        <v>\u093F</v>
+        <v>\u0913</v>
       </c>
       <c r="F81" s="6" t="str">
         <f aca="false">RIGHT(D81,4)</f>
-        <v>093F</v>
+        <v>0913</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="8"/>
@@ -6162,30 +6312,28 @@
     </row>
     <row r="82" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>225</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D82" s="6"/>
       <c r="E82" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F82 )</f>
-        <v>\u0940</v>
+        <v>\u</v>
       </c>
       <c r="F82" s="6" t="str">
         <f aca="false">RIGHT(D82,4)</f>
-        <v>0940</v>
-      </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
+        <v/>
+      </c>
+      <c r="G82" s="11"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
       <c r="N82" s="6"/>
@@ -6222,24 +6370,24 @@
     </row>
     <row r="83" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E83" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F83 )</f>
-        <v>\u0941</v>
+        <v>\u0914</v>
       </c>
       <c r="F83" s="6" t="str">
         <f aca="false">RIGHT(D83,4)</f>
-        <v>0941</v>
+        <v>0914</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="8"/>
@@ -6251,7 +6399,7 @@
       <c r="N83" s="6"/>
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
-      <c r="Q83" s="6"/>
+      <c r="Q83" s="14"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
@@ -6281,36 +6429,34 @@
       <c r="AR83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="6" t="s">
-        <v>176</v>
-      </c>
+      <c r="A84" s="6"/>
       <c r="B84" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>229</v>
+        <v>236</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="E84" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F84 )</f>
-        <v>\u0942</v>
+        <v>\u0904</v>
       </c>
       <c r="F84" s="6" t="str">
         <f aca="false">RIGHT(D84,4)</f>
-        <v>0942</v>
-      </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
+        <v>0904</v>
+      </c>
+      <c r="G84" s="11"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
       <c r="N84" s="6"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
@@ -6341,36 +6487,34 @@
       <c r="AR84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6" t="s">
-        <v>230</v>
-      </c>
+      <c r="A85" s="6"/>
       <c r="B85" s="6" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>232</v>
+        <v>236</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="E85" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F85 )</f>
-        <v>\u0943</v>
+        <v>\u0904</v>
       </c>
       <c r="F85" s="6" t="str">
         <f aca="false">RIGHT(D85,4)</f>
-        <v>0943</v>
-      </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="8"/>
+        <v>0904</v>
+      </c>
+      <c r="G85" s="11"/>
+      <c r="H85" s="12"/>
       <c r="I85" s="12"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="6"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
@@ -6401,35 +6545,37 @@
       <c r="AR85" s="10"/>
     </row>
     <row r="86" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6"/>
+      <c r="A86" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="B86" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E86" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F86 )</f>
-        <v>\u0944</v>
+        <v>\u093E</v>
       </c>
       <c r="F86" s="6" t="str">
         <f aca="false">RIGHT(D86,4)</f>
-        <v>0944</v>
+        <v>093E</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="12"/>
+      <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
       <c r="N86" s="6"/>
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
-      <c r="Q86" s="6"/>
+      <c r="Q86" s="14"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
@@ -6459,34 +6605,36 @@
       <c r="AR86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6"/>
+      <c r="A87" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="B87" s="6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E87" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F87 )</f>
-        <v>\u0962</v>
+        <v>\u093E</v>
       </c>
       <c r="F87" s="6" t="str">
         <f aca="false">RIGHT(D87,4)</f>
-        <v>0962</v>
+        <v>093E</v>
       </c>
       <c r="G87" s="7"/>
-      <c r="H87" s="12"/>
+      <c r="H87" s="8"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
       <c r="N87" s="6"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
       <c r="Q87" s="14"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
@@ -6517,34 +6665,36 @@
       <c r="AR87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6"/>
+      <c r="A88" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="B88" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E88" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F88 )</f>
-        <v>\u0963</v>
+        <v>\u093F</v>
       </c>
       <c r="F88" s="6" t="str">
         <f aca="false">RIGHT(D88,4)</f>
-        <v>0963</v>
+        <v>093F</v>
       </c>
       <c r="G88" s="7"/>
-      <c r="H88" s="12"/>
+      <c r="H88" s="8"/>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
       <c r="N88" s="6"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
@@ -6575,34 +6725,36 @@
       <c r="AR88" s="10"/>
     </row>
     <row r="89" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6"/>
+      <c r="A89" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="B89" s="6" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E89" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F89 )</f>
-        <v>\u0945</v>
+        <v>\u0940</v>
       </c>
       <c r="F89" s="6" t="str">
         <f aca="false">RIGHT(D89,4)</f>
-        <v>0945</v>
+        <v>0940</v>
       </c>
       <c r="G89" s="7"/>
-      <c r="H89" s="12"/>
+      <c r="H89" s="8"/>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
       <c r="N89" s="6"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
@@ -6633,34 +6785,36 @@
       <c r="AR89" s="10"/>
     </row>
     <row r="90" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6"/>
+      <c r="A90" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="B90" s="6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E90" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F90 )</f>
-        <v>\u0946</v>
+        <v>\u0941</v>
       </c>
       <c r="F90" s="6" t="str">
         <f aca="false">RIGHT(D90,4)</f>
-        <v>0946</v>
-      </c>
-      <c r="G90" s="11"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
+        <v>0941</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
       <c r="N90" s="6"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
@@ -6692,24 +6846,24 @@
     </row>
     <row r="91" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E91" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F91 )</f>
-        <v>\u0947</v>
+        <v>\u0942</v>
       </c>
       <c r="F91" s="6" t="str">
         <f aca="false">RIGHT(D91,4)</f>
-        <v>0947</v>
+        <v>0942</v>
       </c>
       <c r="G91" s="7"/>
       <c r="H91" s="8"/>
@@ -6721,7 +6875,7 @@
       <c r="N91" s="6"/>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
-      <c r="Q91" s="14"/>
+      <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
@@ -6751,31 +6905,33 @@
       <c r="AR91" s="10"/>
     </row>
     <row r="92" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6"/>
+      <c r="A92" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="B92" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D92" s="6"/>
+        <v>236</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>251</v>
+      </c>
       <c r="E92" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F92 )</f>
-        <v>\u</v>
-      </c>
-      <c r="F92" s="6" t="inlineStr">
+        <v>\u0943</v>
+      </c>
+      <c r="F92" s="6" t="str">
         <f aca="false">RIGHT(D92,4)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G92" s="11"/>
-      <c r="H92" s="12"/>
+        <v>0943</v>
+      </c>
+      <c r="G92" s="7"/>
+      <c r="H92" s="8"/>
       <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
       <c r="N92" s="6"/>
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
@@ -6809,33 +6965,31 @@
       <c r="AR92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="A93" s="6"/>
       <c r="B93" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E93" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F93 )</f>
-        <v>\u0948</v>
+        <v>\u0944</v>
       </c>
       <c r="F93" s="6" t="str">
         <f aca="false">RIGHT(D93,4)</f>
-        <v>0948</v>
+        <v>0944</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
+      <c r="I93" s="12"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
       <c r="N93" s="6"/>
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
@@ -6871,25 +7025,25 @@
     <row r="94" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E94" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F94 )</f>
-        <v>\u0949</v>
+        <v>\u0962</v>
       </c>
       <c r="F94" s="6" t="str">
         <f aca="false">RIGHT(D94,4)</f>
-        <v>0949</v>
-      </c>
-      <c r="G94" s="11"/>
+        <v>0962</v>
+      </c>
+      <c r="G94" s="7"/>
       <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
+      <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
@@ -6897,7 +7051,7 @@
       <c r="N94" s="6"/>
       <c r="O94" s="12"/>
       <c r="P94" s="12"/>
-      <c r="Q94" s="6"/>
+      <c r="Q94" s="14"/>
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
@@ -6927,28 +7081,28 @@
       <c r="AR94" s="10"/>
     </row>
     <row r="95" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="15"/>
+      <c r="A95" s="6"/>
       <c r="B95" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E95" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F95 )</f>
-        <v>\u094A</v>
+        <v>\u0963</v>
       </c>
       <c r="F95" s="6" t="str">
         <f aca="false">RIGHT(D95,4)</f>
-        <v>094A</v>
-      </c>
-      <c r="G95" s="11"/>
+        <v>0963</v>
+      </c>
+      <c r="G95" s="7"/>
       <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
@@ -6985,36 +7139,34 @@
       <c r="AR95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6" t="s">
-        <v>211</v>
-      </c>
+      <c r="A96" s="6"/>
       <c r="B96" s="6" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E96" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F96 )</f>
-        <v>\u094B</v>
+        <v>\u0945</v>
       </c>
       <c r="F96" s="6" t="str">
         <f aca="false">RIGHT(D96,4)</f>
-        <v>094B</v>
+        <v>0945</v>
       </c>
       <c r="G96" s="7"/>
-      <c r="H96" s="8"/>
+      <c r="H96" s="12"/>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
       <c r="N96" s="6"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
@@ -7045,36 +7197,34 @@
       <c r="AR96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6" t="s">
-        <v>215</v>
-      </c>
+      <c r="A97" s="6"/>
       <c r="B97" s="6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E97" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F97 )</f>
-        <v>\u094C</v>
+        <v>\u0946</v>
       </c>
       <c r="F97" s="6" t="str">
         <f aca="false">RIGHT(D97,4)</f>
-        <v>094C</v>
-      </c>
-      <c r="G97" s="7"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
+        <v>0946</v>
+      </c>
+      <c r="G97" s="11"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
       <c r="N97" s="6"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
@@ -7105,33 +7255,37 @@
       <c r="AR97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6"/>
+      <c r="A98" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="B98" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C98" s="6"/>
+        <v>262</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="D98" s="6" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E98" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F98 )</f>
-        <v>\u093C</v>
+        <v>\u0947</v>
       </c>
       <c r="F98" s="6" t="str">
         <f aca="false">RIGHT(D98,4)</f>
-        <v>093C</v>
-      </c>
-      <c r="G98" s="11"/>
+        <v>0947</v>
+      </c>
+      <c r="G98" s="7"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
       <c r="N98" s="6"/>
       <c r="O98" s="8"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="6"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="14"/>
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
@@ -7161,35 +7315,33 @@
       <c r="AR98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6" t="s">
-        <v>258</v>
-      </c>
+      <c r="A99" s="6"/>
       <c r="B99" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6" t="s">
-        <v>260</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" s="6"/>
       <c r="E99" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F99 )</f>
-        <v>\u093D</v>
+        <v>\u</v>
       </c>
       <c r="F99" s="6" t="str">
         <f aca="false">RIGHT(D99,4)</f>
-        <v>093D</v>
+        <v/>
       </c>
       <c r="G99" s="11"/>
-      <c r="H99" s="8"/>
+      <c r="H99" s="12"/>
       <c r="I99" s="12"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
       <c r="N99" s="6"/>
       <c r="O99" s="8"/>
       <c r="P99" s="8"/>
-      <c r="Q99" s="14"/>
+      <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
@@ -7219,21 +7371,25 @@
       <c r="AR99" s="10"/>
     </row>
     <row r="100" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6"/>
+      <c r="A100" s="6" t="s">
+        <v>221</v>
+      </c>
       <c r="B100" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C100" s="6"/>
+        <v>265</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="D100" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E100" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F100 )</f>
-        <v>\u094D</v>
+        <v>\u0948</v>
       </c>
       <c r="F100" s="6" t="str">
         <f aca="false">RIGHT(D100,4)</f>
-        <v>094D</v>
+        <v>0948</v>
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="8"/>
@@ -7275,35 +7431,35 @@
       <c r="AR100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6" t="s">
-        <v>263</v>
-      </c>
+      <c r="A101" s="6"/>
       <c r="B101" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C101" s="6"/>
+        <v>267</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="D101" s="6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E101" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F101 )</f>
-        <v>\uwnj}</v>
+        <v>\u0949</v>
       </c>
       <c r="F101" s="6" t="str">
         <f aca="false">RIGHT(D101,4)</f>
-        <v>wnj}</v>
-      </c>
-      <c r="G101" s="7"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
+        <v>0949</v>
+      </c>
+      <c r="G101" s="11"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
       <c r="N101" s="6"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
@@ -7333,34 +7489,34 @@
       <c r="AR101" s="10"/>
     </row>
     <row r="102" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="s">
-        <v>266</v>
-      </c>
+      <c r="A102" s="15"/>
       <c r="B102" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C102" s="6"/>
+        <v>269</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="D102" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E102" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F102 )</f>
-        <v>\u0901</v>
+        <v>\u094A</v>
       </c>
       <c r="F102" s="6" t="str">
         <f aca="false">RIGHT(D102,4)</f>
-        <v>0901</v>
-      </c>
-      <c r="G102" s="7"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
+        <v>094A</v>
+      </c>
+      <c r="G102" s="11"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
       <c r="N102" s="6"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
@@ -7392,22 +7548,24 @@
     </row>
     <row r="103" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C103" s="6"/>
+        <v>271</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="D103" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E103" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F103 )</f>
-        <v>\u0902</v>
+        <v>\u094B</v>
       </c>
       <c r="F103" s="6" t="str">
         <f aca="false">RIGHT(D103,4)</f>
-        <v>0902</v>
+        <v>094B</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="8"/>
@@ -7450,22 +7608,24 @@
     </row>
     <row r="104" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C104" s="6"/>
+      <c r="C104" s="6" t="s">
+        <v>236</v>
+      </c>
       <c r="D104" s="6" t="s">
         <v>274</v>
       </c>
       <c r="E104" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F104 )</f>
-        <v>\u0903</v>
+        <v>\u094C</v>
       </c>
       <c r="F104" s="6" t="str">
         <f aca="false">RIGHT(D104,4)</f>
-        <v>0903</v>
+        <v>094C</v>
       </c>
       <c r="G104" s="7"/>
       <c r="H104" s="8"/>
@@ -7507,33 +7667,31 @@
       <c r="AR104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E105" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F105 )</f>
-        <v>\u0950</v>
+        <v>\u093C</v>
       </c>
       <c r="F105" s="6" t="str">
         <f aca="false">RIGHT(D105,4)</f>
-        <v>0950</v>
-      </c>
-      <c r="G105" s="7"/>
-      <c r="H105" s="6"/>
+        <v>093C</v>
+      </c>
+      <c r="G105" s="11"/>
+      <c r="H105" s="8"/>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
       <c r="N105" s="6"/>
-      <c r="O105" s="12"/>
+      <c r="O105" s="8"/>
       <c r="P105" s="12"/>
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
@@ -7565,7 +7723,9 @@
       <c r="AR105" s="10"/>
     </row>
     <row r="106" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6"/>
+      <c r="A106" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="B106" s="6" t="s">
         <v>278</v>
       </c>
@@ -7575,23 +7735,23 @@
       </c>
       <c r="E106" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F106 )</f>
-        <v>\u0951</v>
+        <v>\u093D</v>
       </c>
       <c r="F106" s="6" t="str">
         <f aca="false">RIGHT(D106,4)</f>
-        <v>0951</v>
+        <v>093D</v>
       </c>
       <c r="G106" s="11"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
       <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
-      <c r="P106" s="6"/>
-      <c r="Q106" s="6"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+      <c r="Q106" s="14"/>
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
       <c r="T106" s="6"/>
@@ -7621,7 +7781,9 @@
       <c r="AR106" s="10"/>
     </row>
     <row r="107" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6"/>
+      <c r="A107" s="6" t="s">
+        <v>280</v>
+      </c>
       <c r="B107" s="6" t="s">
         <v>280</v>
       </c>
@@ -7631,22 +7793,22 @@
       </c>
       <c r="E107" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F107 )</f>
-        <v>\u0952</v>
+        <v>\u094D</v>
       </c>
       <c r="F107" s="6" t="str">
         <f aca="false">RIGHT(D107,4)</f>
-        <v>0952</v>
-      </c>
-      <c r="G107" s="11"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
+        <v>094D</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
       <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="6"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
       <c r="S107" s="6"/>
@@ -7677,33 +7839,35 @@
       <c r="AR107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6"/>
+      <c r="A108" s="6" t="s">
+        <v>282</v>
+      </c>
       <c r="B108" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E108" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F108 )</f>
-        <v>\uA8F3</v>
+        <v>\uwnj}</v>
       </c>
       <c r="F108" s="6" t="str">
         <f aca="false">RIGHT(D108,4)</f>
-        <v>A8F3</v>
-      </c>
-      <c r="G108" s="11"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
+        <v>wnj}</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="14"/>
       <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14"/>
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
@@ -7733,32 +7897,34 @@
       <c r="AR108" s="10"/>
     </row>
     <row r="109" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="6"/>
+      <c r="A109" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="B109" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E109" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F109 )</f>
-        <v>\u1CDA</v>
+        <v>\u0901</v>
       </c>
       <c r="F109" s="6" t="str">
         <f aca="false">RIGHT(D109,4)</f>
-        <v>1CDA</v>
-      </c>
-      <c r="G109" s="11"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
+        <v>0901</v>
+      </c>
+      <c r="G109" s="7"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
       <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
       <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
@@ -7789,32 +7955,34 @@
       <c r="AR109" s="10"/>
     </row>
     <row r="110" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6"/>
+      <c r="A110" s="6" t="s">
+        <v>288</v>
+      </c>
       <c r="B110" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E110" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F110 )</f>
-        <v>\u0953</v>
+        <v>\u0902</v>
       </c>
       <c r="F110" s="6" t="str">
         <f aca="false">RIGHT(D110,4)</f>
-        <v>0953</v>
-      </c>
-      <c r="G110" s="11"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
+        <v>0902</v>
+      </c>
+      <c r="G110" s="7"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
       <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
@@ -7845,32 +8013,36 @@
       <c r="AR110" s="10"/>
     </row>
     <row r="111" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6"/>
+      <c r="A111" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="B111" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C111" s="6"/>
+        <v>292</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>292</v>
+      </c>
       <c r="D111" s="6" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E111" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F111 )</f>
-        <v>\u0954</v>
+        <v>\u0903</v>
       </c>
       <c r="F111" s="6" t="str">
         <f aca="false">RIGHT(D111,4)</f>
-        <v>0954</v>
-      </c>
-      <c r="G111" s="11"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
+        <v>0903</v>
+      </c>
+      <c r="G111" s="7"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
       <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
       <c r="S111" s="6"/>
@@ -7902,34 +8074,34 @@
     </row>
     <row r="112" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E112" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F112 )</f>
-        <v>\u0964</v>
+        <v>\u0950</v>
       </c>
       <c r="F112" s="6" t="str">
         <f aca="false">RIGHT(D112,4)</f>
-        <v>0964</v>
+        <v>0950</v>
       </c>
       <c r="G112" s="7"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="14"/>
-      <c r="K112" s="14"/>
-      <c r="L112" s="14"/>
-      <c r="M112" s="14"/>
-      <c r="N112" s="14"/>
-      <c r="O112" s="14"/>
-      <c r="P112" s="14"/>
-      <c r="Q112" s="14"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
       <c r="T112" s="6"/>
@@ -7959,35 +8131,33 @@
       <c r="AR112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6" t="s">
-        <v>293</v>
-      </c>
+      <c r="A113" s="6"/>
       <c r="B113" s="6" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E113" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F113 )</f>
-        <v>\u0965</v>
+        <v>\u0951</v>
       </c>
       <c r="F113" s="6" t="str">
         <f aca="false">RIGHT(D113,4)</f>
-        <v>0965</v>
-      </c>
-      <c r="G113" s="7"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="14"/>
-      <c r="K113" s="14"/>
-      <c r="L113" s="14"/>
-      <c r="M113" s="14"/>
-      <c r="N113" s="14"/>
-      <c r="O113" s="14"/>
-      <c r="P113" s="14"/>
-      <c r="Q113" s="14"/>
+        <v>0951</v>
+      </c>
+      <c r="G113" s="11"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
       <c r="R113" s="6"/>
       <c r="S113" s="6"/>
       <c r="T113" s="6"/>
@@ -8017,35 +8187,33 @@
       <c r="AR113" s="10"/>
     </row>
     <row r="114" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="6" t="s">
-        <v>296</v>
-      </c>
+      <c r="A114" s="6"/>
       <c r="B114" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E114" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F114 )</f>
-        <v>\u0966</v>
+        <v>\u0952</v>
       </c>
       <c r="F114" s="6" t="str">
         <f aca="false">RIGHT(D114,4)</f>
-        <v>0966</v>
-      </c>
-      <c r="G114" s="7"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
+        <v>0952</v>
+      </c>
+      <c r="G114" s="11"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
       <c r="N114" s="6"/>
-      <c r="O114" s="8"/>
-      <c r="P114" s="8"/>
-      <c r="Q114" s="8"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
       <c r="S114" s="6"/>
       <c r="T114" s="6"/>
@@ -8075,35 +8243,33 @@
       <c r="AR114" s="10"/>
     </row>
     <row r="115" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6" t="s">
-        <v>299</v>
-      </c>
+      <c r="A115" s="6"/>
       <c r="B115" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E115" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F115 )</f>
-        <v>\u0967</v>
+        <v>\uA8F3</v>
       </c>
       <c r="F115" s="6" t="str">
         <f aca="false">RIGHT(D115,4)</f>
-        <v>0967</v>
-      </c>
-      <c r="G115" s="7"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
+        <v>A8F3</v>
+      </c>
+      <c r="G115" s="11"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
       <c r="N115" s="6"/>
-      <c r="O115" s="8"/>
-      <c r="P115" s="8"/>
-      <c r="Q115" s="8"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
       <c r="S115" s="6"/>
       <c r="T115" s="6"/>
@@ -8133,9 +8299,7 @@
       <c r="AR115" s="10"/>
     </row>
     <row r="116" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="6" t="s">
-        <v>302</v>
-      </c>
+      <c r="A116" s="6"/>
       <c r="B116" s="6" t="s">
         <v>303</v>
       </c>
@@ -8145,23 +8309,23 @@
       </c>
       <c r="E116" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F116 )</f>
-        <v>\u0968</v>
+        <v>\u1CDA</v>
       </c>
       <c r="F116" s="6" t="str">
         <f aca="false">RIGHT(D116,4)</f>
-        <v>0968</v>
-      </c>
-      <c r="G116" s="7"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
+        <v>1CDA</v>
+      </c>
+      <c r="G116" s="11"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
       <c r="N116" s="6"/>
-      <c r="O116" s="8"/>
-      <c r="P116" s="8"/>
-      <c r="Q116" s="8"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
       <c r="S116" s="6"/>
       <c r="T116" s="6"/>
@@ -8191,35 +8355,33 @@
       <c r="AR116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E117" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F117 )</f>
-        <v>\u0969</v>
+        <v>\u0953</v>
       </c>
       <c r="F117" s="6" t="str">
         <f aca="false">RIGHT(D117,4)</f>
-        <v>0969</v>
-      </c>
-      <c r="G117" s="7"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
+        <v>0953</v>
+      </c>
+      <c r="G117" s="11"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
       <c r="N117" s="6"/>
-      <c r="O117" s="8"/>
-      <c r="P117" s="8"/>
-      <c r="Q117" s="8"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
       <c r="R117" s="6"/>
       <c r="S117" s="6"/>
       <c r="T117" s="6"/>
@@ -8249,35 +8411,33 @@
       <c r="AR117" s="10"/>
     </row>
     <row r="118" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="6" t="s">
-        <v>308</v>
-      </c>
+      <c r="A118" s="6"/>
       <c r="B118" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E118" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F118 )</f>
-        <v>\u096A</v>
+        <v>\u0954</v>
       </c>
       <c r="F118" s="6" t="str">
         <f aca="false">RIGHT(D118,4)</f>
-        <v>096A</v>
-      </c>
-      <c r="G118" s="7"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="8"/>
+        <v>0954</v>
+      </c>
+      <c r="G118" s="11"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
       <c r="N118" s="6"/>
-      <c r="O118" s="8"/>
-      <c r="P118" s="8"/>
-      <c r="Q118" s="8"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
       <c r="R118" s="6"/>
       <c r="S118" s="6"/>
       <c r="T118" s="6"/>
@@ -8308,34 +8468,34 @@
     </row>
     <row r="119" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E119" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F119 )</f>
-        <v>\u096B</v>
+        <v>\u0964</v>
       </c>
       <c r="F119" s="6" t="str">
         <f aca="false">RIGHT(D119,4)</f>
-        <v>096B</v>
+        <v>0964</v>
       </c>
       <c r="G119" s="7"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
-      <c r="M119" s="8"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="8"/>
-      <c r="P119" s="8"/>
-      <c r="Q119" s="8"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="14"/>
+      <c r="L119" s="14"/>
+      <c r="M119" s="14"/>
+      <c r="N119" s="14"/>
+      <c r="O119" s="14"/>
+      <c r="P119" s="14"/>
+      <c r="Q119" s="14"/>
       <c r="R119" s="6"/>
       <c r="S119" s="6"/>
       <c r="T119" s="6"/>
@@ -8366,34 +8526,34 @@
     </row>
     <row r="120" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E120" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F120 )</f>
-        <v>\u096C</v>
+        <v>\u0965</v>
       </c>
       <c r="F120" s="6" t="str">
         <f aca="false">RIGHT(D120,4)</f>
-        <v>096C</v>
+        <v>0965</v>
       </c>
       <c r="G120" s="7"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="8"/>
-      <c r="P120" s="8"/>
-      <c r="Q120" s="8"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="14"/>
+      <c r="P120" s="14"/>
+      <c r="Q120" s="14"/>
       <c r="R120" s="6"/>
       <c r="S120" s="6"/>
       <c r="T120" s="6"/>
@@ -8424,22 +8584,22 @@
     </row>
     <row r="121" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E121" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F121 )</f>
-        <v>\u096D</v>
+        <v>\u0966</v>
       </c>
       <c r="F121" s="6" t="str">
         <f aca="false">RIGHT(D121,4)</f>
-        <v>096D</v>
+        <v>0966</v>
       </c>
       <c r="G121" s="7"/>
       <c r="H121" s="8"/>
@@ -8482,22 +8642,22 @@
     </row>
     <row r="122" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E122" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F122 )</f>
-        <v>\u096E</v>
+        <v>\u0967</v>
       </c>
       <c r="F122" s="6" t="str">
         <f aca="false">RIGHT(D122,4)</f>
-        <v>096E</v>
+        <v>0967</v>
       </c>
       <c r="G122" s="7"/>
       <c r="H122" s="8"/>
@@ -8540,22 +8700,22 @@
     </row>
     <row r="123" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E123" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F123 )</f>
-        <v>\u096F</v>
+        <v>\u0968</v>
       </c>
       <c r="F123" s="6" t="str">
         <f aca="false">RIGHT(D123,4)</f>
-        <v>096F</v>
+        <v>0968</v>
       </c>
       <c r="G123" s="7"/>
       <c r="H123" s="8"/>
@@ -8597,33 +8757,35 @@
       <c r="AR123" s="10"/>
     </row>
     <row r="124" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="6"/>
+      <c r="A124" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="B124" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E124" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F124 )</f>
-        <v>\uA8F7</v>
+        <v>\u0969</v>
       </c>
       <c r="F124" s="6" t="str">
         <f aca="false">RIGHT(D124,4)</f>
-        <v>A8F7</v>
-      </c>
-      <c r="G124" s="11"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
+        <v>0969</v>
+      </c>
+      <c r="G124" s="7"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
       <c r="N124" s="6"/>
-      <c r="O124" s="6"/>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="6"/>
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+      <c r="Q124" s="8"/>
       <c r="R124" s="6"/>
       <c r="S124" s="6"/>
       <c r="T124" s="6"/>
@@ -8653,7 +8815,9 @@
       <c r="AR124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="6"/>
+      <c r="A125" s="6" t="s">
+        <v>327</v>
+      </c>
       <c r="B125" s="6" t="s">
         <v>328</v>
       </c>
@@ -8663,23 +8827,23 @@
       </c>
       <c r="E125" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F125 )</f>
-        <v>\uA8F8</v>
+        <v>\u096A</v>
       </c>
       <c r="F125" s="6" t="str">
         <f aca="false">RIGHT(D125,4)</f>
-        <v>A8F8</v>
-      </c>
-      <c r="G125" s="11"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
-      <c r="M125" s="6"/>
+        <v>096A</v>
+      </c>
+      <c r="G125" s="7"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
       <c r="N125" s="6"/>
-      <c r="O125" s="6"/>
-      <c r="P125" s="6"/>
-      <c r="Q125" s="6"/>
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+      <c r="Q125" s="8"/>
       <c r="R125" s="6"/>
       <c r="S125" s="6"/>
       <c r="T125" s="6"/>
@@ -8709,33 +8873,35 @@
       <c r="AR125" s="10"/>
     </row>
     <row r="126" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="6"/>
+      <c r="A126" s="6" t="s">
+        <v>330</v>
+      </c>
       <c r="B126" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E126" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F126 )</f>
-        <v>\u1CD0</v>
+        <v>\u096B</v>
       </c>
       <c r="F126" s="6" t="str">
         <f aca="false">RIGHT(D126,4)</f>
-        <v>1CD0</v>
-      </c>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
-      <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
+        <v>096B</v>
+      </c>
+      <c r="G126" s="7"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
       <c r="N126" s="6"/>
-      <c r="O126" s="6"/>
-      <c r="P126" s="6"/>
-      <c r="Q126" s="6"/>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+      <c r="Q126" s="8"/>
       <c r="R126" s="6"/>
       <c r="S126" s="6"/>
       <c r="T126" s="6"/>
@@ -8765,33 +8931,35 @@
       <c r="AR126" s="10"/>
     </row>
     <row r="127" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="6"/>
+      <c r="A127" s="6" t="s">
+        <v>333</v>
+      </c>
       <c r="B127" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E127" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F127 )</f>
-        <v>\u1CD1</v>
+        <v>\u096C</v>
       </c>
       <c r="F127" s="6" t="str">
         <f aca="false">RIGHT(D127,4)</f>
-        <v>1CD1</v>
-      </c>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
+        <v>096C</v>
+      </c>
+      <c r="G127" s="7"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
       <c r="N127" s="6"/>
-      <c r="O127" s="6"/>
-      <c r="P127" s="6"/>
-      <c r="Q127" s="6"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
       <c r="R127" s="6"/>
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
@@ -8821,33 +8989,35 @@
       <c r="AR127" s="10"/>
     </row>
     <row r="128" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="6"/>
+      <c r="A128" s="6" t="s">
+        <v>336</v>
+      </c>
       <c r="B128" s="6" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E128" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F128 )</f>
-        <v>\u1CD2</v>
+        <v>\u096D</v>
       </c>
       <c r="F128" s="6" t="str">
         <f aca="false">RIGHT(D128,4)</f>
-        <v>1CD2</v>
-      </c>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="6"/>
-      <c r="K128" s="6"/>
-      <c r="L128" s="6"/>
-      <c r="M128" s="6"/>
+        <v>096D</v>
+      </c>
+      <c r="G128" s="7"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
       <c r="N128" s="6"/>
-      <c r="O128" s="6"/>
-      <c r="P128" s="6"/>
-      <c r="Q128" s="6"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+      <c r="Q128" s="8"/>
       <c r="R128" s="6"/>
       <c r="S128" s="6"/>
       <c r="T128" s="6"/>
@@ -8877,33 +9047,35 @@
       <c r="AR128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="6"/>
+      <c r="A129" s="6" t="s">
+        <v>339</v>
+      </c>
       <c r="B129" s="6" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E129" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F129 )</f>
-        <v>\u1CD3</v>
+        <v>\u096E</v>
       </c>
       <c r="F129" s="6" t="str">
         <f aca="false">RIGHT(D129,4)</f>
-        <v>1CD3</v>
-      </c>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
+        <v>096E</v>
+      </c>
+      <c r="G129" s="7"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
       <c r="N129" s="6"/>
-      <c r="O129" s="6"/>
-      <c r="P129" s="6"/>
-      <c r="Q129" s="6"/>
+      <c r="O129" s="8"/>
+      <c r="P129" s="8"/>
+      <c r="Q129" s="8"/>
       <c r="R129" s="6"/>
       <c r="S129" s="6"/>
       <c r="T129" s="6"/>
@@ -8933,37 +9105,37 @@
       <c r="AR129" s="10"/>
     </row>
     <row r="130" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C130" s="11"/>
-      <c r="D130" s="7" t="s">
-        <v>340</v>
+      <c r="A130" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6" t="s">
+        <v>344</v>
       </c>
       <c r="E130" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F130 )</f>
-        <v>\u20B9</v>
+        <v>\u096F</v>
       </c>
       <c r="F130" s="6" t="str">
         <f aca="false">RIGHT(D130,4)</f>
-        <v>20B9</v>
+        <v>096F</v>
       </c>
       <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
-      <c r="K130" s="7"/>
-      <c r="L130" s="7"/>
-      <c r="M130" s="7"/>
-      <c r="N130" s="7"/>
-      <c r="O130" s="7"/>
-      <c r="P130" s="7"/>
-      <c r="Q130" s="7"/>
-      <c r="R130" s="7"/>
-      <c r="S130" s="7"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="8"/>
+      <c r="P130" s="8"/>
+      <c r="Q130" s="8"/>
+      <c r="R130" s="6"/>
+      <c r="S130" s="6"/>
       <c r="T130" s="6"/>
       <c r="U130" s="9"/>
       <c r="V130" s="9"/>
@@ -8991,37 +9163,35 @@
       <c r="AR130" s="10"/>
     </row>
     <row r="131" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C131" s="11"/>
-      <c r="D131" s="7" t="s">
-        <v>340</v>
+      <c r="A131" s="6"/>
+      <c r="B131" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6" t="s">
+        <v>346</v>
       </c>
       <c r="E131" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F131 )</f>
-        <v>\u20B9</v>
+        <v>\uA8F7</v>
       </c>
       <c r="F131" s="6" t="str">
         <f aca="false">RIGHT(D131,4)</f>
-        <v>20B9</v>
-      </c>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="7"/>
-      <c r="M131" s="7"/>
-      <c r="N131" s="7"/>
-      <c r="O131" s="7"/>
-      <c r="P131" s="7"/>
-      <c r="Q131" s="7"/>
-      <c r="R131" s="7"/>
-      <c r="S131" s="7"/>
+        <v>A8F7</v>
+      </c>
+      <c r="G131" s="11"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+      <c r="R131" s="6"/>
+      <c r="S131" s="6"/>
       <c r="T131" s="6"/>
       <c r="U131" s="9"/>
       <c r="V131" s="9"/>
@@ -9049,39 +9219,35 @@
       <c r="AR131" s="10"/>
     </row>
     <row r="132" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="6" t="s">
-        <v>343</v>
-      </c>
+      <c r="A132" s="6"/>
       <c r="B132" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>345</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C132" s="6"/>
       <c r="D132" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E132" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F132 )</f>
-        <v>\uzwj}</v>
+        <v>\uA8F8</v>
       </c>
       <c r="F132" s="6" t="str">
         <f aca="false">RIGHT(D132,4)</f>
-        <v>zwj}</v>
-      </c>
-      <c r="G132" s="7"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="14"/>
-      <c r="K132" s="14"/>
-      <c r="L132" s="14"/>
-      <c r="M132" s="14"/>
+        <v>A8F8</v>
+      </c>
+      <c r="G132" s="11"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
       <c r="N132" s="6"/>
-      <c r="O132" s="14"/>
-      <c r="P132" s="14"/>
-      <c r="Q132" s="14"/>
-      <c r="R132" s="14"/>
-      <c r="S132" s="14"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+      <c r="R132" s="6"/>
+      <c r="S132" s="6"/>
       <c r="T132" s="6"/>
       <c r="U132" s="9"/>
       <c r="V132" s="9"/>
@@ -9109,36 +9275,32 @@
       <c r="AR132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="6" t="s">
-        <v>347</v>
-      </c>
+      <c r="A133" s="6"/>
       <c r="B133" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D133" s="6"/>
+        <v>349</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6" t="s">
+        <v>350</v>
+      </c>
       <c r="E133" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F133 )</f>
-        <v>\u</v>
-      </c>
-      <c r="F133" s="6" t="inlineStr">
+        <v>\u1CD0</v>
+      </c>
+      <c r="F133" s="6" t="str">
         <f aca="false">RIGHT(D133,4)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G133" s="11"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="12"/>
-      <c r="L133" s="12"/>
-      <c r="M133" s="12"/>
+        <v>1CD0</v>
+      </c>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
       <c r="N133" s="6"/>
-      <c r="O133" s="12"/>
-      <c r="P133" s="12"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
       <c r="R133" s="6"/>
       <c r="S133" s="6"/>
@@ -9169,23 +9331,23 @@
       <c r="AR133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="15"/>
+      <c r="A134" s="6"/>
       <c r="B134" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E134" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F134 )</f>
-        <v>\u200B</v>
+        <v>\u1CD1</v>
       </c>
       <c r="F134" s="6" t="str">
         <f aca="false">RIGHT(D134,4)</f>
-        <v>200B</v>
-      </c>
-      <c r="G134" s="7"/>
+        <v>1CD1</v>
+      </c>
+      <c r="G134" s="6"/>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
@@ -9225,23 +9387,23 @@
       <c r="AR134" s="10"/>
     </row>
     <row r="135" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="15"/>
+      <c r="A135" s="6"/>
       <c r="B135" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E135" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F135 )</f>
-        <v>\u200C</v>
+        <v>\u1CD2</v>
       </c>
       <c r="F135" s="6" t="str">
         <f aca="false">RIGHT(D135,4)</f>
-        <v>200C</v>
-      </c>
-      <c r="G135" s="7"/>
+        <v>1CD2</v>
+      </c>
+      <c r="G135" s="6"/>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
@@ -9281,23 +9443,23 @@
       <c r="AR135" s="10"/>
     </row>
     <row r="136" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="15"/>
+      <c r="A136" s="6"/>
       <c r="B136" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E136" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F136 )</f>
-        <v>\u200D</v>
+        <v>\u1CD3</v>
       </c>
       <c r="F136" s="6" t="str">
         <f aca="false">RIGHT(D136,4)</f>
-        <v>200D</v>
-      </c>
-      <c r="G136" s="7"/>
+        <v>1CD3</v>
+      </c>
+      <c r="G136" s="6"/>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
@@ -9336,6 +9498,408 @@
       <c r="AQ136" s="10"/>
       <c r="AR136" s="10"/>
     </row>
+    <row r="137" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C137" s="11"/>
+      <c r="D137" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E137" s="6" t="str">
+        <f aca="false">CONCATENATE("\u",F137 )</f>
+        <v>\u20B9</v>
+      </c>
+      <c r="F137" s="6" t="str">
+        <f aca="false">RIGHT(D137,4)</f>
+        <v>20B9</v>
+      </c>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7"/>
+      <c r="S137" s="7"/>
+      <c r="T137" s="6"/>
+      <c r="U137" s="9"/>
+      <c r="V137" s="9"/>
+      <c r="W137" s="9"/>
+      <c r="X137" s="9"/>
+      <c r="Y137" s="9"/>
+      <c r="Z137" s="9"/>
+      <c r="AA137" s="9"/>
+      <c r="AB137" s="9"/>
+      <c r="AC137" s="10"/>
+      <c r="AD137" s="10"/>
+      <c r="AE137" s="10"/>
+      <c r="AF137" s="10"/>
+      <c r="AG137" s="10"/>
+      <c r="AH137" s="10"/>
+      <c r="AI137" s="10"/>
+      <c r="AJ137" s="10"/>
+      <c r="AK137" s="10"/>
+      <c r="AL137" s="10"/>
+      <c r="AM137" s="10"/>
+      <c r="AN137" s="10"/>
+      <c r="AO137" s="10"/>
+      <c r="AP137" s="10"/>
+      <c r="AQ137" s="10"/>
+      <c r="AR137" s="10"/>
+    </row>
+    <row r="138" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C138" s="11"/>
+      <c r="D138" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E138" s="6" t="str">
+        <f aca="false">CONCATENATE("\u",F138 )</f>
+        <v>\u20B9</v>
+      </c>
+      <c r="F138" s="6" t="str">
+        <f aca="false">RIGHT(D138,4)</f>
+        <v>20B9</v>
+      </c>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="7"/>
+      <c r="O138" s="7"/>
+      <c r="P138" s="7"/>
+      <c r="Q138" s="7"/>
+      <c r="R138" s="7"/>
+      <c r="S138" s="7"/>
+      <c r="T138" s="6"/>
+      <c r="U138" s="9"/>
+      <c r="V138" s="9"/>
+      <c r="W138" s="9"/>
+      <c r="X138" s="9"/>
+      <c r="Y138" s="9"/>
+      <c r="Z138" s="9"/>
+      <c r="AA138" s="9"/>
+      <c r="AB138" s="9"/>
+      <c r="AC138" s="10"/>
+      <c r="AD138" s="10"/>
+      <c r="AE138" s="10"/>
+      <c r="AF138" s="10"/>
+      <c r="AG138" s="10"/>
+      <c r="AH138" s="10"/>
+      <c r="AI138" s="10"/>
+      <c r="AJ138" s="10"/>
+      <c r="AK138" s="10"/>
+      <c r="AL138" s="10"/>
+      <c r="AM138" s="10"/>
+      <c r="AN138" s="10"/>
+      <c r="AO138" s="10"/>
+      <c r="AP138" s="10"/>
+      <c r="AQ138" s="10"/>
+      <c r="AR138" s="10"/>
+    </row>
+    <row r="139" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="E139" s="6" t="str">
+        <f aca="false">CONCATENATE("\u",F139 )</f>
+        <v>\uzwj}</v>
+      </c>
+      <c r="F139" s="6" t="str">
+        <f aca="false">RIGHT(D139,4)</f>
+        <v>zwj}</v>
+      </c>
+      <c r="G139" s="7"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="14"/>
+      <c r="Q139" s="14"/>
+      <c r="R139" s="14"/>
+      <c r="S139" s="14"/>
+      <c r="T139" s="6"/>
+      <c r="U139" s="9"/>
+      <c r="V139" s="9"/>
+      <c r="W139" s="9"/>
+      <c r="X139" s="9"/>
+      <c r="Y139" s="9"/>
+      <c r="Z139" s="9"/>
+      <c r="AA139" s="9"/>
+      <c r="AB139" s="9"/>
+      <c r="AC139" s="10"/>
+      <c r="AD139" s="10"/>
+      <c r="AE139" s="10"/>
+      <c r="AF139" s="10"/>
+      <c r="AG139" s="10"/>
+      <c r="AH139" s="10"/>
+      <c r="AI139" s="10"/>
+      <c r="AJ139" s="10"/>
+      <c r="AK139" s="10"/>
+      <c r="AL139" s="10"/>
+      <c r="AM139" s="10"/>
+      <c r="AN139" s="10"/>
+      <c r="AO139" s="10"/>
+      <c r="AP139" s="10"/>
+      <c r="AQ139" s="10"/>
+      <c r="AR139" s="10"/>
+    </row>
+    <row r="140" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6" t="str">
+        <f aca="false">CONCATENATE("\u",F140 )</f>
+        <v>\u</v>
+      </c>
+      <c r="F140" s="6" t="str">
+        <f aca="false">RIGHT(D140,4)</f>
+        <v/>
+      </c>
+      <c r="G140" s="11"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="12"/>
+      <c r="P140" s="12"/>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="6"/>
+      <c r="S140" s="6"/>
+      <c r="T140" s="6"/>
+      <c r="U140" s="9"/>
+      <c r="V140" s="9"/>
+      <c r="W140" s="9"/>
+      <c r="X140" s="9"/>
+      <c r="Y140" s="9"/>
+      <c r="Z140" s="9"/>
+      <c r="AA140" s="9"/>
+      <c r="AB140" s="9"/>
+      <c r="AC140" s="10"/>
+      <c r="AD140" s="10"/>
+      <c r="AE140" s="10"/>
+      <c r="AF140" s="10"/>
+      <c r="AG140" s="10"/>
+      <c r="AH140" s="10"/>
+      <c r="AI140" s="10"/>
+      <c r="AJ140" s="10"/>
+      <c r="AK140" s="10"/>
+      <c r="AL140" s="10"/>
+      <c r="AM140" s="10"/>
+      <c r="AN140" s="10"/>
+      <c r="AO140" s="10"/>
+      <c r="AP140" s="10"/>
+      <c r="AQ140" s="10"/>
+      <c r="AR140" s="10"/>
+    </row>
+    <row r="141" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="15"/>
+      <c r="B141" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E141" s="6" t="str">
+        <f aca="false">CONCATENATE("\u",F141 )</f>
+        <v>\u200B</v>
+      </c>
+      <c r="F141" s="6" t="str">
+        <f aca="false">RIGHT(D141,4)</f>
+        <v>200B</v>
+      </c>
+      <c r="G141" s="7"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
+      <c r="R141" s="6"/>
+      <c r="S141" s="6"/>
+      <c r="T141" s="6"/>
+      <c r="U141" s="9"/>
+      <c r="V141" s="9"/>
+      <c r="W141" s="9"/>
+      <c r="X141" s="9"/>
+      <c r="Y141" s="9"/>
+      <c r="Z141" s="9"/>
+      <c r="AA141" s="9"/>
+      <c r="AB141" s="9"/>
+      <c r="AC141" s="10"/>
+      <c r="AD141" s="10"/>
+      <c r="AE141" s="10"/>
+      <c r="AF141" s="10"/>
+      <c r="AG141" s="10"/>
+      <c r="AH141" s="10"/>
+      <c r="AI141" s="10"/>
+      <c r="AJ141" s="10"/>
+      <c r="AK141" s="10"/>
+      <c r="AL141" s="10"/>
+      <c r="AM141" s="10"/>
+      <c r="AN141" s="10"/>
+      <c r="AO141" s="10"/>
+      <c r="AP141" s="10"/>
+      <c r="AQ141" s="10"/>
+      <c r="AR141" s="10"/>
+    </row>
+    <row r="142" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="15"/>
+      <c r="B142" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E142" s="6" t="str">
+        <f aca="false">CONCATENATE("\u",F142 )</f>
+        <v>\u200C</v>
+      </c>
+      <c r="F142" s="6" t="str">
+        <f aca="false">RIGHT(D142,4)</f>
+        <v>200C</v>
+      </c>
+      <c r="G142" s="7"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="6"/>
+      <c r="T142" s="6"/>
+      <c r="U142" s="9"/>
+      <c r="V142" s="9"/>
+      <c r="W142" s="9"/>
+      <c r="X142" s="9"/>
+      <c r="Y142" s="9"/>
+      <c r="Z142" s="9"/>
+      <c r="AA142" s="9"/>
+      <c r="AB142" s="9"/>
+      <c r="AC142" s="10"/>
+      <c r="AD142" s="10"/>
+      <c r="AE142" s="10"/>
+      <c r="AF142" s="10"/>
+      <c r="AG142" s="10"/>
+      <c r="AH142" s="10"/>
+      <c r="AI142" s="10"/>
+      <c r="AJ142" s="10"/>
+      <c r="AK142" s="10"/>
+      <c r="AL142" s="10"/>
+      <c r="AM142" s="10"/>
+      <c r="AN142" s="10"/>
+      <c r="AO142" s="10"/>
+      <c r="AP142" s="10"/>
+      <c r="AQ142" s="10"/>
+      <c r="AR142" s="10"/>
+    </row>
+    <row r="143" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="15"/>
+      <c r="B143" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E143" s="6" t="str">
+        <f aca="false">CONCATENATE("\u",F143 )</f>
+        <v>\u200D</v>
+      </c>
+      <c r="F143" s="6" t="str">
+        <f aca="false">RIGHT(D143,4)</f>
+        <v>200D</v>
+      </c>
+      <c r="G143" s="7"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="6"/>
+      <c r="T143" s="6"/>
+      <c r="U143" s="9"/>
+      <c r="V143" s="9"/>
+      <c r="W143" s="9"/>
+      <c r="X143" s="9"/>
+      <c r="Y143" s="9"/>
+      <c r="Z143" s="9"/>
+      <c r="AA143" s="9"/>
+      <c r="AB143" s="9"/>
+      <c r="AC143" s="10"/>
+      <c r="AD143" s="10"/>
+      <c r="AE143" s="10"/>
+      <c r="AF143" s="10"/>
+      <c r="AG143" s="10"/>
+      <c r="AH143" s="10"/>
+      <c r="AI143" s="10"/>
+      <c r="AJ143" s="10"/>
+      <c r="AK143" s="10"/>
+      <c r="AL143" s="10"/>
+      <c r="AM143" s="10"/>
+      <c r="AN143" s="10"/>
+      <c r="AO143" s="10"/>
+      <c r="AP143" s="10"/>
+      <c r="AQ143" s="10"/>
+      <c r="AR143" s="10"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/utils/itransdict.xlsx
+++ b/utils/itransdict.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="382">
   <si>
     <t>INPUT</t>
   </si>
@@ -89,7 +89,7 @@
     <t>u+091A</t>
   </si>
   <si>
-    <t>chh </t>
+    <t>chh</t>
   </si>
   <si>
     <t>cha</t>
@@ -491,7 +491,7 @@
     <t>u+097E</t>
   </si>
   <si>
-    <t>x | kSh</t>
+    <t>x</t>
   </si>
   <si>
     <t>ksha</t>
@@ -533,6 +533,7 @@
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ﾑﾍﾍ</t>
     </r>
@@ -551,6 +552,12 @@
     <t>kṣ</t>
   </si>
   <si>
+    <t>kSh</t>
+  </si>
+  <si>
+    <t>dny</t>
+  </si>
+  <si>
     <t>জ্ঞ</t>
   </si>
   <si>
@@ -578,6 +585,12 @@
     <t>jñ</t>
   </si>
   <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>j~n</t>
+  </si>
+  <si>
     <t>ஶ்ரீ</t>
   </si>
   <si>
@@ -902,15 +915,18 @@
     <t>u+0901</t>
   </si>
   <si>
-    <t>.n | M | .m</t>
-  </si>
-  <si>
     <t>anusvara</t>
   </si>
   <si>
     <t>u+0902</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>.m</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -920,7 +936,7 @@
     <t>u+0903</t>
   </si>
   <si>
-    <t>OM | AUM</t>
+    <t>OM</t>
   </si>
   <si>
     <t>om</t>
@@ -929,6 +945,9 @@
     <t>u+0950</t>
   </si>
   <si>
+    <t>AUM</t>
+  </si>
+  <si>
     <t>udatta</t>
   </si>
   <si>
@@ -1158,6 +1177,12 @@
   </si>
   <si>
     <t>u+200D</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1253,16 +1278,30 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="FreeSans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1313,7 +1352,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1378,15 +1417,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1407,14 +1454,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR143"/>
+  <dimension ref="A1:AR151"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
-      <selection pane="bottomRight" activeCell="C114" activeCellId="0" sqref="C114"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3841,9 +3888,11 @@
         <f aca="false">CONCATENATE("\u",F41 )</f>
         <v>\u</v>
       </c>
-      <c r="F41" s="6" t="str">
+      <c r="F41" s="6" t="inlineStr">
         <f aca="false">RIGHT(D41,4)</f>
-        <v/>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
@@ -4712,7 +4761,7 @@
       <c r="AQ55" s="10"/>
       <c r="AR55" s="10"/>
     </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="18" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="16" t="s">
         <v>158</v>
       </c>
@@ -4770,370 +4819,277 @@
       <c r="S56" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18"/>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="18"/>
-      <c r="AA56" s="18"/>
-      <c r="AB56" s="18"/>
-      <c r="AC56" s="18"/>
-      <c r="AD56" s="18"/>
-      <c r="AE56" s="18"/>
-      <c r="AF56" s="18"/>
-      <c r="AG56" s="18"/>
-      <c r="AH56" s="18"/>
-      <c r="AI56" s="18"/>
-      <c r="AJ56" s="18"/>
-      <c r="AK56" s="18"/>
-      <c r="AL56" s="18"/>
-      <c r="AM56" s="18"/>
-      <c r="AN56" s="18"/>
-      <c r="AO56" s="18"/>
-      <c r="AP56" s="18"/>
-      <c r="AQ56" s="18"/>
-      <c r="AR56" s="18"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="57" s="18" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="16" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="M57" s="17" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="O57" s="17" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="P57" s="17" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="Q57" s="16" t="s">
         <v>169</v>
       </c>
       <c r="R57" s="16" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="S57" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="18"/>
-      <c r="X57" s="18"/>
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="18"/>
-      <c r="AA57" s="18"/>
-      <c r="AB57" s="18"/>
-      <c r="AC57" s="18"/>
-      <c r="AD57" s="18"/>
-      <c r="AE57" s="18"/>
-      <c r="AF57" s="18"/>
-      <c r="AG57" s="18"/>
-      <c r="AH57" s="18"/>
-      <c r="AI57" s="18"/>
-      <c r="AJ57" s="18"/>
-      <c r="AK57" s="18"/>
-      <c r="AL57" s="18"/>
-      <c r="AM57" s="18"/>
-      <c r="AN57" s="18"/>
-      <c r="AO57" s="18"/>
-      <c r="AP57" s="18"/>
-      <c r="AQ57" s="18"/>
-      <c r="AR57" s="18"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" s="18" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="16" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
+      <c r="D58" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J58" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>176</v>
+      </c>
       <c r="L58" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M58" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="N58" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="O58" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="P58" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18"/>
-      <c r="W58" s="18"/>
-      <c r="X58" s="18"/>
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="18"/>
-      <c r="AA58" s="18"/>
-      <c r="AB58" s="18"/>
-      <c r="AC58" s="18"/>
-      <c r="AD58" s="18"/>
-      <c r="AE58" s="18"/>
-      <c r="AF58" s="18"/>
-      <c r="AG58" s="18"/>
-      <c r="AH58" s="18"/>
-      <c r="AI58" s="18"/>
-      <c r="AJ58" s="18"/>
-      <c r="AK58" s="18"/>
-      <c r="AL58" s="18"/>
-      <c r="AM58" s="18"/>
-      <c r="AN58" s="18"/>
-      <c r="AO58" s="18"/>
-      <c r="AP58" s="18"/>
-      <c r="AQ58" s="18"/>
-      <c r="AR58" s="18"/>
-    </row>
-    <row r="59" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
+      <c r="Q58" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="R58" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="S58" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="6" t="s">
+    </row>
+    <row r="59" s="18" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="B59" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M59" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="N59" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="O59" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="P59" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q59" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="R59" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="S59" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" s="18" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="E59" s="6" t="str">
-        <f aca="false">CONCATENATE("\u",F59 )</f>
-        <v>\u0905</v>
-      </c>
-      <c r="F59" s="6" t="str">
-        <f aca="false">RIGHT(D59,4)</f>
-        <v>0905</v>
-      </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
-      <c r="AB59" s="9"/>
-      <c r="AC59" s="10"/>
-      <c r="AD59" s="10"/>
-      <c r="AE59" s="10"/>
-      <c r="AF59" s="10"/>
-      <c r="AG59" s="10"/>
-      <c r="AH59" s="10"/>
-      <c r="AI59" s="10"/>
-      <c r="AJ59" s="10"/>
-      <c r="AK59" s="10"/>
-      <c r="AL59" s="10"/>
-      <c r="AM59" s="10"/>
-      <c r="AN59" s="10"/>
-      <c r="AO59" s="10"/>
-      <c r="AP59" s="10"/>
-      <c r="AQ59" s="10"/>
-      <c r="AR59" s="10"/>
-    </row>
-    <row r="60" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
+      <c r="B60" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K60" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L60" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M60" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="N60" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="O60" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="P60" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q60" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="R60" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="S60" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" s="18" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L61" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E60" s="6" t="str">
-        <f aca="false">CONCATENATE("\u",F60 )</f>
-        <v>\u0906</v>
-      </c>
-      <c r="F60" s="6" t="str">
-        <f aca="false">RIGHT(D60,4)</f>
-        <v>0906</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="9"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="9"/>
-      <c r="Y60" s="9"/>
-      <c r="Z60" s="9"/>
-      <c r="AA60" s="9"/>
-      <c r="AB60" s="9"/>
-      <c r="AC60" s="10"/>
-      <c r="AD60" s="10"/>
-      <c r="AE60" s="10"/>
-      <c r="AF60" s="10"/>
-      <c r="AG60" s="10"/>
-      <c r="AH60" s="10"/>
-      <c r="AI60" s="10"/>
-      <c r="AJ60" s="10"/>
-      <c r="AK60" s="10"/>
-      <c r="AL60" s="10"/>
-      <c r="AM60" s="10"/>
-      <c r="AN60" s="10"/>
-      <c r="AO60" s="10"/>
-      <c r="AP60" s="10"/>
-      <c r="AQ60" s="10"/>
-      <c r="AR60" s="10"/>
-    </row>
-    <row r="61" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E61" s="6" t="str">
-        <f aca="false">CONCATENATE("\u",F61 )</f>
-        <v>\u0906</v>
-      </c>
-      <c r="F61" s="6" t="str">
-        <f aca="false">RIGHT(D61,4)</f>
-        <v>0906</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="9"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="9"/>
-      <c r="Z61" s="9"/>
-      <c r="AA61" s="9"/>
-      <c r="AB61" s="9"/>
-      <c r="AC61" s="10"/>
-      <c r="AD61" s="10"/>
-      <c r="AE61" s="10"/>
-      <c r="AF61" s="10"/>
-      <c r="AG61" s="10"/>
-      <c r="AH61" s="10"/>
-      <c r="AI61" s="10"/>
-      <c r="AJ61" s="10"/>
-      <c r="AK61" s="10"/>
-      <c r="AL61" s="10"/>
-      <c r="AM61" s="10"/>
-      <c r="AN61" s="10"/>
-      <c r="AO61" s="10"/>
-      <c r="AP61" s="10"/>
-      <c r="AQ61" s="10"/>
-      <c r="AR61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="E62" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F62 )</f>
-        <v>\u0907</v>
+        <v>\u0905</v>
       </c>
       <c r="F62" s="6" t="str">
         <f aca="false">RIGHT(D62,4)</f>
-        <v>0907</v>
+        <v>0905</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="8"/>
@@ -5145,7 +5101,7 @@
       <c r="N62" s="6"/>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
-      <c r="Q62" s="14"/>
+      <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
@@ -5176,24 +5132,24 @@
     </row>
     <row r="63" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="E63" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F63 )</f>
-        <v>\u0908</v>
+        <v>\u0906</v>
       </c>
       <c r="F63" s="6" t="str">
         <f aca="false">RIGHT(D63,4)</f>
-        <v>0908</v>
+        <v>0906</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="8"/>
@@ -5205,7 +5161,7 @@
       <c r="N63" s="6"/>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
-      <c r="Q63" s="14"/>
+      <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
@@ -5236,24 +5192,24 @@
     </row>
     <row r="64" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E64" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F64 )</f>
-        <v>\u0909</v>
+        <v>\u0906</v>
       </c>
       <c r="F64" s="6" t="str">
         <f aca="false">RIGHT(D64,4)</f>
-        <v>0909</v>
+        <v>0906</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="8"/>
@@ -5296,24 +5252,24 @@
     </row>
     <row r="65" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E65" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F65 )</f>
-        <v>\u090A</v>
+        <v>\u0907</v>
       </c>
       <c r="F65" s="6" t="str">
         <f aca="false">RIGHT(D65,4)</f>
-        <v>090A</v>
+        <v>0907</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="8"/>
@@ -5325,7 +5281,7 @@
       <c r="N65" s="6"/>
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
-      <c r="Q65" s="6"/>
+      <c r="Q65" s="14"/>
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
       <c r="T65" s="6"/>
@@ -5356,24 +5312,24 @@
     </row>
     <row r="66" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>193</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>194</v>
       </c>
       <c r="E66" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F66 )</f>
-        <v>\u090A</v>
+        <v>\u0908</v>
       </c>
       <c r="F66" s="6" t="str">
         <f aca="false">RIGHT(D66,4)</f>
-        <v>090A</v>
+        <v>0908</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="8"/>
@@ -5385,7 +5341,7 @@
       <c r="N66" s="6"/>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
-      <c r="Q66" s="6"/>
+      <c r="Q66" s="14"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
       <c r="T66" s="6"/>
@@ -5416,36 +5372,36 @@
     </row>
     <row r="67" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="E67" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F67 )</f>
-        <v>\u090B</v>
+        <v>\u0909</v>
       </c>
       <c r="F67" s="6" t="str">
         <f aca="false">RIGHT(D67,4)</f>
-        <v>090B</v>
+        <v>0909</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="12"/>
+      <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
       <c r="N67" s="6"/>
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
-      <c r="Q67" s="14"/>
+      <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
@@ -5476,36 +5432,36 @@
     </row>
     <row r="68" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>197</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>198</v>
       </c>
       <c r="E68" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F68 )</f>
-        <v>\u090B</v>
+        <v>\u090A</v>
       </c>
       <c r="F68" s="6" t="str">
         <f aca="false">RIGHT(D68,4)</f>
-        <v>090B</v>
+        <v>090A</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="12"/>
+      <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
       <c r="N68" s="6"/>
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
-      <c r="Q68" s="14"/>
+      <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
@@ -5536,32 +5492,32 @@
     </row>
     <row r="69" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E69" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F69 )</f>
-        <v>\u090C</v>
+        <v>\u090A</v>
       </c>
       <c r="F69" s="6" t="str">
         <f aca="false">RIGHT(D69,4)</f>
-        <v>090C</v>
+        <v>090A</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="8"/>
-      <c r="I69" s="12"/>
+      <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
       <c r="N69" s="6"/>
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
@@ -5596,24 +5552,24 @@
     </row>
     <row r="70" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>201</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>202</v>
       </c>
       <c r="E70" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F70 )</f>
-        <v>\u090C</v>
+        <v>\u090B</v>
       </c>
       <c r="F70" s="6" t="str">
         <f aca="false">RIGHT(D70,4)</f>
-        <v>090C</v>
+        <v>090B</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="8"/>
@@ -5625,7 +5581,7 @@
       <c r="N70" s="6"/>
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
-      <c r="Q70" s="6"/>
+      <c r="Q70" s="14"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
@@ -5656,24 +5612,24 @@
     </row>
     <row r="71" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>182</v>
+        <v>201</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E71" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F71 )</f>
-        <v>\u0960</v>
+        <v>\u090B</v>
       </c>
       <c r="F71" s="6" t="str">
         <f aca="false">RIGHT(D71,4)</f>
-        <v>0960</v>
+        <v>090B</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="8"/>
@@ -5685,7 +5641,7 @@
       <c r="N71" s="6"/>
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
-      <c r="Q71" s="6"/>
+      <c r="Q71" s="14"/>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
@@ -5716,24 +5672,24 @@
     </row>
     <row r="72" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="E72" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F72 )</f>
-        <v>\u0961</v>
+        <v>\u090C</v>
       </c>
       <c r="F72" s="6" t="str">
         <f aca="false">RIGHT(D72,4)</f>
-        <v>0961</v>
+        <v>090C</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="8"/>
@@ -5776,33 +5732,35 @@
     </row>
     <row r="73" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C73" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="D73" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E73" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F73 )</f>
-        <v>\u0972</v>
+        <v>\u090C</v>
       </c>
       <c r="F73" s="6" t="str">
         <f aca="false">RIGHT(D73,4)</f>
-        <v>0972</v>
-      </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="12"/>
+        <v>090C</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="8"/>
       <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
       <c r="N73" s="6"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
@@ -5834,35 +5792,35 @@
     </row>
     <row r="74" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>182</v>
+        <v>208</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E74" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F74 )</f>
-        <v>\u090D</v>
+        <v>\u0960</v>
       </c>
       <c r="F74" s="6" t="str">
         <f aca="false">RIGHT(D74,4)</f>
-        <v>090D</v>
-      </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="12"/>
+        <v>0960</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="8"/>
       <c r="I74" s="12"/>
       <c r="J74" s="8"/>
-      <c r="K74" s="12"/>
+      <c r="K74" s="8"/>
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
       <c r="N74" s="6"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
@@ -5894,35 +5852,35 @@
     </row>
     <row r="75" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>182</v>
+        <v>210</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E75" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F75 )</f>
-        <v>\u090E</v>
+        <v>\u0961</v>
       </c>
       <c r="F75" s="6" t="str">
         <f aca="false">RIGHT(D75,4)</f>
-        <v>090E</v>
-      </c>
-      <c r="G75" s="11"/>
-      <c r="H75" s="12"/>
+        <v>0961</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="8"/>
       <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
       <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
@@ -5954,35 +5912,33 @@
     </row>
     <row r="76" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>182</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C76" s="6"/>
       <c r="D76" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E76" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F76 )</f>
-        <v>\u090F</v>
+        <v>\u0972</v>
       </c>
       <c r="F76" s="6" t="str">
         <f aca="false">RIGHT(D76,4)</f>
-        <v>090F</v>
-      </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="8"/>
+        <v>0972</v>
+      </c>
+      <c r="G76" s="11"/>
+      <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="12"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
       <c r="N76" s="6"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
@@ -6014,33 +5970,35 @@
     </row>
     <row r="77" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D77" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="E77" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F77 )</f>
-        <v>\u</v>
+        <v>\u090D</v>
       </c>
       <c r="F77" s="6" t="str">
         <f aca="false">RIGHT(D77,4)</f>
-        <v/>
+        <v>090D</v>
       </c>
       <c r="G77" s="11"/>
       <c r="H77" s="12"/>
-      <c r="I77" s="8"/>
+      <c r="I77" s="12"/>
       <c r="J77" s="8"/>
       <c r="K77" s="12"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
       <c r="N77" s="6"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
@@ -6072,35 +6030,35 @@
     </row>
     <row r="78" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E78" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F78 )</f>
-        <v>\u0910</v>
+        <v>\u090E</v>
       </c>
       <c r="F78" s="6" t="str">
         <f aca="false">RIGHT(D78,4)</f>
-        <v>0910</v>
-      </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
+        <v>090E</v>
+      </c>
+      <c r="G78" s="11"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
       <c r="N78" s="6"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
@@ -6132,35 +6090,35 @@
     </row>
     <row r="79" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E79" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F79 )</f>
-        <v>\u0911</v>
+        <v>\u090F</v>
       </c>
       <c r="F79" s="6" t="str">
         <f aca="false">RIGHT(D79,4)</f>
-        <v>0911</v>
-      </c>
-      <c r="G79" s="11"/>
-      <c r="H79" s="12"/>
+        <v>090F</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="8"/>
       <c r="I79" s="12"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
       <c r="N79" s="6"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
@@ -6192,35 +6150,35 @@
     </row>
     <row r="80" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>228</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="D80" s="6"/>
       <c r="E80" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F80 )</f>
-        <v>\u0912</v>
-      </c>
-      <c r="F80" s="6" t="str">
+        <v>\u</v>
+      </c>
+      <c r="F80" s="6" t="inlineStr">
         <f aca="false">RIGHT(D80,4)</f>
-        <v>0912</v>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
       <c r="K80" s="12"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
       <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
@@ -6252,24 +6210,24 @@
     </row>
     <row r="81" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E81" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F81 )</f>
-        <v>\u0913</v>
+        <v>\u0910</v>
       </c>
       <c r="F81" s="6" t="str">
         <f aca="false">RIGHT(D81,4)</f>
-        <v>0913</v>
+        <v>0910</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="8"/>
@@ -6312,33 +6270,35 @@
     </row>
     <row r="82" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D82" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="E82" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F82 )</f>
-        <v>\u</v>
+        <v>\u0911</v>
       </c>
       <c r="F82" s="6" t="str">
         <f aca="false">RIGHT(D82,4)</f>
-        <v/>
+        <v>0911</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
+      <c r="J82" s="8"/>
       <c r="K82" s="12"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
       <c r="N82" s="6"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
@@ -6370,36 +6330,36 @@
     </row>
     <row r="83" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E83" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F83 )</f>
-        <v>\u0914</v>
+        <v>\u0912</v>
       </c>
       <c r="F83" s="6" t="str">
         <f aca="false">RIGHT(D83,4)</f>
-        <v>0914</v>
-      </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
+        <v>0912</v>
+      </c>
+      <c r="G83" s="11"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
       <c r="N83" s="6"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="14"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
@@ -6429,34 +6389,36 @@
       <c r="AR83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="6"/>
+      <c r="A84" s="6" t="s">
+        <v>233</v>
+      </c>
       <c r="B84" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>237</v>
+        <v>186</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="E84" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F84 )</f>
-        <v>\u0904</v>
+        <v>\u0913</v>
       </c>
       <c r="F84" s="6" t="str">
         <f aca="false">RIGHT(D84,4)</f>
-        <v>0904</v>
-      </c>
-      <c r="G84" s="11"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
+        <v>0913</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
       <c r="N84" s="6"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
@@ -6487,34 +6449,36 @@
       <c r="AR84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6"/>
+      <c r="A85" s="6" t="s">
+        <v>235</v>
+      </c>
       <c r="B85" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>237</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="D85" s="6"/>
       <c r="E85" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F85 )</f>
-        <v>\u0904</v>
-      </c>
-      <c r="F85" s="6" t="str">
+        <v>\u</v>
+      </c>
+      <c r="F85" s="6" t="inlineStr">
         <f aca="false">RIGHT(D85,4)</f>
-        <v>0904</v>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
       <c r="N85" s="6"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
@@ -6546,24 +6510,24 @@
     </row>
     <row r="86" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E86" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F86 )</f>
-        <v>\u093E</v>
+        <v>\u0914</v>
       </c>
       <c r="F86" s="6" t="str">
         <f aca="false">RIGHT(D86,4)</f>
-        <v>093E</v>
+        <v>0914</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="8"/>
@@ -6605,37 +6569,35 @@
       <c r="AR86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="A87" s="6"/>
       <c r="B87" s="6" t="s">
         <v>239</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D87" s="6" t="s">
         <v>240</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>241</v>
       </c>
       <c r="E87" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F87 )</f>
-        <v>\u093E</v>
+        <v>\u0904</v>
       </c>
       <c r="F87" s="6" t="str">
         <f aca="false">RIGHT(D87,4)</f>
-        <v>093E</v>
-      </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
+        <v>0904</v>
+      </c>
+      <c r="G87" s="11"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
       <c r="N87" s="6"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="14"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
@@ -6665,36 +6627,34 @@
       <c r="AR87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6" t="s">
-        <v>187</v>
-      </c>
+      <c r="A88" s="6"/>
       <c r="B88" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D88" s="19" t="s">
         <v>241</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="E88" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F88 )</f>
-        <v>\u093F</v>
+        <v>\u0904</v>
       </c>
       <c r="F88" s="6" t="str">
         <f aca="false">RIGHT(D88,4)</f>
-        <v>093F</v>
-      </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
+        <v>0904</v>
+      </c>
+      <c r="G88" s="11"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
       <c r="N88" s="6"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
@@ -6726,24 +6686,24 @@
     </row>
     <row r="89" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>243</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>244</v>
       </c>
       <c r="E89" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F89 )</f>
-        <v>\u0940</v>
+        <v>\u093E</v>
       </c>
       <c r="F89" s="6" t="str">
         <f aca="false">RIGHT(D89,4)</f>
-        <v>0940</v>
+        <v>093E</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="8"/>
@@ -6755,7 +6715,7 @@
       <c r="N89" s="6"/>
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
-      <c r="Q89" s="6"/>
+      <c r="Q89" s="14"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
@@ -6786,24 +6746,24 @@
     </row>
     <row r="90" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E90" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F90 )</f>
-        <v>\u0941</v>
+        <v>\u093E</v>
       </c>
       <c r="F90" s="6" t="str">
         <f aca="false">RIGHT(D90,4)</f>
-        <v>0941</v>
+        <v>093E</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="8"/>
@@ -6815,7 +6775,7 @@
       <c r="N90" s="6"/>
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
-      <c r="Q90" s="6"/>
+      <c r="Q90" s="14"/>
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
       <c r="T90" s="6"/>
@@ -6846,24 +6806,24 @@
     </row>
     <row r="91" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E91" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F91 )</f>
-        <v>\u0942</v>
+        <v>\u093F</v>
       </c>
       <c r="F91" s="6" t="str">
         <f aca="false">RIGHT(D91,4)</f>
-        <v>0942</v>
+        <v>093F</v>
       </c>
       <c r="G91" s="7"/>
       <c r="H91" s="8"/>
@@ -6906,32 +6866,32 @@
     </row>
     <row r="92" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E92" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F92 )</f>
-        <v>\u0943</v>
+        <v>\u0940</v>
       </c>
       <c r="F92" s="6" t="str">
         <f aca="false">RIGHT(D92,4)</f>
-        <v>0943</v>
+        <v>0940</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="12"/>
+      <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
       <c r="N92" s="6"/>
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
@@ -6965,31 +6925,33 @@
       <c r="AR92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6"/>
+      <c r="A93" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="B93" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E93" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F93 )</f>
-        <v>\u0944</v>
+        <v>\u0941</v>
       </c>
       <c r="F93" s="6" t="str">
         <f aca="false">RIGHT(D93,4)</f>
-        <v>0944</v>
+        <v>0941</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="8"/>
-      <c r="I93" s="12"/>
+      <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
       <c r="N93" s="6"/>
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
@@ -7023,35 +6985,37 @@
       <c r="AR93" s="10"/>
     </row>
     <row r="94" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6"/>
+      <c r="A94" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="B94" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E94" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F94 )</f>
-        <v>\u0962</v>
+        <v>\u0942</v>
       </c>
       <c r="F94" s="6" t="str">
         <f aca="false">RIGHT(D94,4)</f>
-        <v>0962</v>
+        <v>0942</v>
       </c>
       <c r="G94" s="7"/>
-      <c r="H94" s="12"/>
+      <c r="H94" s="8"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
       <c r="N94" s="6"/>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="14"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
@@ -7081,34 +7045,36 @@
       <c r="AR94" s="10"/>
     </row>
     <row r="95" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6"/>
+      <c r="A95" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="B95" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E95" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F95 )</f>
-        <v>\u0963</v>
+        <v>\u0943</v>
       </c>
       <c r="F95" s="6" t="str">
         <f aca="false">RIGHT(D95,4)</f>
-        <v>0963</v>
+        <v>0943</v>
       </c>
       <c r="G95" s="7"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="12"/>
       <c r="J95" s="8"/>
-      <c r="K95" s="12"/>
+      <c r="K95" s="8"/>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
       <c r="N95" s="6"/>
-      <c r="O95" s="12"/>
-      <c r="P95" s="12"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
@@ -7141,32 +7107,32 @@
     <row r="96" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E96" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F96 )</f>
-        <v>\u0945</v>
+        <v>\u0944</v>
       </c>
       <c r="F96" s="6" t="str">
         <f aca="false">RIGHT(D96,4)</f>
-        <v>0945</v>
+        <v>0944</v>
       </c>
       <c r="G96" s="7"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="12"/>
       <c r="J96" s="8"/>
-      <c r="K96" s="12"/>
+      <c r="K96" s="8"/>
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
       <c r="N96" s="6"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
@@ -7199,33 +7165,33 @@
     <row r="97" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E97" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F97 )</f>
-        <v>\u0946</v>
+        <v>\u0962</v>
       </c>
       <c r="F97" s="6" t="str">
         <f aca="false">RIGHT(D97,4)</f>
-        <v>0946</v>
-      </c>
-      <c r="G97" s="11"/>
+        <v>0962</v>
+      </c>
+      <c r="G97" s="7"/>
       <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
       <c r="K97" s="12"/>
       <c r="L97" s="12"/>
       <c r="M97" s="12"/>
       <c r="N97" s="6"/>
       <c r="O97" s="12"/>
       <c r="P97" s="12"/>
-      <c r="Q97" s="6"/>
+      <c r="Q97" s="14"/>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
@@ -7255,37 +7221,35 @@
       <c r="AR97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6" t="s">
-        <v>217</v>
-      </c>
+      <c r="A98" s="6"/>
       <c r="B98" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E98" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F98 )</f>
-        <v>\u0947</v>
+        <v>\u0963</v>
       </c>
       <c r="F98" s="6" t="str">
         <f aca="false">RIGHT(D98,4)</f>
-        <v>0947</v>
+        <v>0963</v>
       </c>
       <c r="G98" s="7"/>
-      <c r="H98" s="8"/>
+      <c r="H98" s="12"/>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
       <c r="N98" s="6"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-      <c r="Q98" s="14"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
@@ -7317,30 +7281,32 @@
     <row r="99" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D99" s="6"/>
+        <v>240</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="E99" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F99 )</f>
-        <v>\u</v>
+        <v>\u0945</v>
       </c>
       <c r="F99" s="6" t="str">
         <f aca="false">RIGHT(D99,4)</f>
-        <v/>
-      </c>
-      <c r="G99" s="11"/>
+        <v>0945</v>
+      </c>
+      <c r="G99" s="7"/>
       <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
       <c r="K99" s="12"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
       <c r="N99" s="6"/>
-      <c r="O99" s="8"/>
-      <c r="P99" s="8"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
       <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
@@ -7371,36 +7337,34 @@
       <c r="AR99" s="10"/>
     </row>
     <row r="100" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6" t="s">
-        <v>221</v>
-      </c>
+      <c r="A100" s="6"/>
       <c r="B100" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="E100" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F100 )</f>
-        <v>\u0948</v>
+        <v>\u0946</v>
       </c>
       <c r="F100" s="6" t="str">
         <f aca="false">RIGHT(D100,4)</f>
-        <v>0948</v>
-      </c>
-      <c r="G100" s="7"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
+        <v>0946</v>
+      </c>
+      <c r="G100" s="11"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
       <c r="N100" s="6"/>
-      <c r="O100" s="8"/>
-      <c r="P100" s="8"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
       <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
@@ -7431,35 +7395,37 @@
       <c r="AR100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6"/>
+      <c r="A101" s="6" t="s">
+        <v>221</v>
+      </c>
       <c r="B101" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="E101" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F101 )</f>
-        <v>\u0949</v>
+        <v>\u0947</v>
       </c>
       <c r="F101" s="6" t="str">
         <f aca="false">RIGHT(D101,4)</f>
-        <v>0949</v>
-      </c>
-      <c r="G101" s="11"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
+        <v>0947</v>
+      </c>
+      <c r="G101" s="7"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
       <c r="J101" s="8"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
       <c r="N101" s="6"/>
-      <c r="O101" s="12"/>
-      <c r="P101" s="12"/>
-      <c r="Q101" s="6"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+      <c r="Q101" s="14"/>
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
@@ -7489,34 +7455,34 @@
       <c r="AR101" s="10"/>
     </row>
     <row r="102" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="15"/>
+      <c r="A102" s="6"/>
       <c r="B102" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>270</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D102" s="6"/>
       <c r="E102" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F102 )</f>
-        <v>\u094A</v>
-      </c>
-      <c r="F102" s="6" t="str">
+        <v>\u</v>
+      </c>
+      <c r="F102" s="6" t="inlineStr">
         <f aca="false">RIGHT(D102,4)</f>
-        <v>094A</v>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
       <c r="N102" s="6"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
@@ -7548,24 +7514,24 @@
     </row>
     <row r="103" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E103" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F103 )</f>
-        <v>\u094B</v>
+        <v>\u0948</v>
       </c>
       <c r="F103" s="6" t="str">
         <f aca="false">RIGHT(D103,4)</f>
-        <v>094B</v>
+        <v>0948</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="8"/>
@@ -7607,36 +7573,34 @@
       <c r="AR103" s="10"/>
     </row>
     <row r="104" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6" t="s">
-        <v>233</v>
-      </c>
+      <c r="A104" s="6"/>
       <c r="B104" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E104" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F104 )</f>
-        <v>\u094C</v>
+        <v>\u0949</v>
       </c>
       <c r="F104" s="6" t="str">
         <f aca="false">RIGHT(D104,4)</f>
-        <v>094C</v>
-      </c>
-      <c r="G104" s="7"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
+        <v>0949</v>
+      </c>
+      <c r="G104" s="11"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
       <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
       <c r="N104" s="6"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
       <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
@@ -7667,31 +7631,33 @@
       <c r="AR104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6"/>
+      <c r="A105" s="15"/>
       <c r="B105" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C105" s="6"/>
+        <v>273</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="D105" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E105" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F105 )</f>
-        <v>\u093C</v>
+        <v>\u094A</v>
       </c>
       <c r="F105" s="6" t="str">
         <f aca="false">RIGHT(D105,4)</f>
-        <v>093C</v>
+        <v>094A</v>
       </c>
       <c r="G105" s="11"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
       <c r="L105" s="12"/>
       <c r="M105" s="12"/>
       <c r="N105" s="6"/>
-      <c r="O105" s="8"/>
+      <c r="O105" s="12"/>
       <c r="P105" s="12"/>
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
@@ -7724,34 +7690,36 @@
     </row>
     <row r="106" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C106" s="6"/>
+        <v>275</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="D106" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E106" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F106 )</f>
-        <v>\u093D</v>
+        <v>\u094B</v>
       </c>
       <c r="F106" s="6" t="str">
         <f aca="false">RIGHT(D106,4)</f>
-        <v>093D</v>
-      </c>
-      <c r="G106" s="11"/>
+        <v>094B</v>
+      </c>
+      <c r="G106" s="7"/>
       <c r="H106" s="8"/>
-      <c r="I106" s="12"/>
+      <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
       <c r="N106" s="6"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
-      <c r="Q106" s="14"/>
+      <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
       <c r="S106" s="6"/>
       <c r="T106" s="6"/>
@@ -7782,22 +7750,24 @@
     </row>
     <row r="107" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C107" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>240</v>
+      </c>
       <c r="D107" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E107" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F107 )</f>
-        <v>\u094D</v>
+        <v>\u094C</v>
       </c>
       <c r="F107" s="6" t="str">
         <f aca="false">RIGHT(D107,4)</f>
-        <v>094D</v>
+        <v>094C</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="8"/>
@@ -7839,35 +7809,33 @@
       <c r="AR107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6" t="s">
-        <v>282</v>
-      </c>
+      <c r="A108" s="6"/>
       <c r="B108" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E108" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F108 )</f>
-        <v>\uwnj}</v>
+        <v>\u093C</v>
       </c>
       <c r="F108" s="6" t="str">
         <f aca="false">RIGHT(D108,4)</f>
-        <v>wnj}</v>
-      </c>
-      <c r="G108" s="7"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
+        <v>093C</v>
+      </c>
+      <c r="G108" s="11"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
       <c r="N108" s="6"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="14"/>
-      <c r="Q108" s="14"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
@@ -7898,26 +7866,26 @@
     </row>
     <row r="109" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E109" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F109 )</f>
-        <v>\u0901</v>
+        <v>\u093D</v>
       </c>
       <c r="F109" s="6" t="str">
         <f aca="false">RIGHT(D109,4)</f>
-        <v>0901</v>
-      </c>
-      <c r="G109" s="7"/>
+        <v>093D</v>
+      </c>
+      <c r="G109" s="11"/>
       <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
+      <c r="I109" s="12"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="12"/>
@@ -7925,7 +7893,7 @@
       <c r="N109" s="6"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
-      <c r="Q109" s="6"/>
+      <c r="Q109" s="14"/>
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
@@ -7956,22 +7924,22 @@
     </row>
     <row r="110" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E110" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F110 )</f>
-        <v>\u0902</v>
+        <v>\u094D</v>
       </c>
       <c r="F110" s="6" t="str">
         <f aca="false">RIGHT(D110,4)</f>
-        <v>0902</v>
+        <v>094D</v>
       </c>
       <c r="G110" s="7"/>
       <c r="H110" s="8"/>
@@ -8014,36 +7982,34 @@
     </row>
     <row r="111" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>292</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C111" s="6"/>
       <c r="D111" s="6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E111" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F111 )</f>
-        <v>\u0903</v>
+        <v>\uwnj}</v>
       </c>
       <c r="F111" s="6" t="str">
         <f aca="false">RIGHT(D111,4)</f>
-        <v>0903</v>
+        <v>wnj}</v>
       </c>
       <c r="G111" s="7"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14"/>
       <c r="N111" s="6"/>
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-      <c r="Q111" s="6"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="14"/>
       <c r="R111" s="6"/>
       <c r="S111" s="6"/>
       <c r="T111" s="6"/>
@@ -8074,33 +8040,33 @@
     </row>
     <row r="112" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E112" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F112 )</f>
-        <v>\u0950</v>
+        <v>\u0901</v>
       </c>
       <c r="F112" s="6" t="str">
         <f aca="false">RIGHT(D112,4)</f>
-        <v>0950</v>
+        <v>0901</v>
       </c>
       <c r="G112" s="7"/>
-      <c r="H112" s="6"/>
+      <c r="H112" s="8"/>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
       <c r="N112" s="6"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
@@ -8131,32 +8097,34 @@
       <c r="AR112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6"/>
+      <c r="A113" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="B113" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E113" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F113 )</f>
-        <v>\u0951</v>
+        <v>\u0902</v>
       </c>
       <c r="F113" s="6" t="str">
         <f aca="false">RIGHT(D113,4)</f>
-        <v>0951</v>
-      </c>
-      <c r="G113" s="11"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
+        <v>0902</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
       <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
       <c r="Q113" s="6"/>
       <c r="R113" s="6"/>
       <c r="S113" s="6"/>
@@ -8187,32 +8155,34 @@
       <c r="AR113" s="10"/>
     </row>
     <row r="114" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="6"/>
+      <c r="A114" s="6" t="s">
+        <v>294</v>
+      </c>
       <c r="B114" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E114" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F114 )</f>
-        <v>\u0952</v>
+        <v>\u0902</v>
       </c>
       <c r="F114" s="6" t="str">
         <f aca="false">RIGHT(D114,4)</f>
-        <v>0952</v>
-      </c>
-      <c r="G114" s="11"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
-      <c r="M114" s="6"/>
+        <v>0902</v>
+      </c>
+      <c r="G114" s="7"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
       <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="6"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
       <c r="S114" s="6"/>
@@ -8243,32 +8213,34 @@
       <c r="AR114" s="10"/>
     </row>
     <row r="115" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6"/>
+      <c r="A115" s="6" t="s">
+        <v>295</v>
+      </c>
       <c r="B115" s="6" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E115" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F115 )</f>
-        <v>\uA8F3</v>
+        <v>\u0902</v>
       </c>
       <c r="F115" s="6" t="str">
         <f aca="false">RIGHT(D115,4)</f>
-        <v>A8F3</v>
-      </c>
-      <c r="G115" s="11"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
-      <c r="M115" s="6"/>
+        <v>0902</v>
+      </c>
+      <c r="G115" s="7"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
       <c r="N115" s="6"/>
-      <c r="O115" s="6"/>
-      <c r="P115" s="6"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
       <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
       <c r="S115" s="6"/>
@@ -8299,32 +8271,36 @@
       <c r="AR115" s="10"/>
     </row>
     <row r="116" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="6"/>
+      <c r="A116" s="6" t="s">
+        <v>296</v>
+      </c>
       <c r="B116" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C116" s="6"/>
+        <v>297</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>297</v>
+      </c>
       <c r="D116" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E116" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F116 )</f>
-        <v>\u1CDA</v>
+        <v>\u0903</v>
       </c>
       <c r="F116" s="6" t="str">
         <f aca="false">RIGHT(D116,4)</f>
-        <v>1CDA</v>
-      </c>
-      <c r="G116" s="11"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
-      <c r="K116" s="6"/>
-      <c r="L116" s="6"/>
-      <c r="M116" s="6"/>
+        <v>0903</v>
+      </c>
+      <c r="G116" s="7"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
       <c r="N116" s="6"/>
-      <c r="O116" s="6"/>
-      <c r="P116" s="6"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
       <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
       <c r="S116" s="6"/>
@@ -8355,32 +8331,34 @@
       <c r="AR116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="6"/>
+      <c r="A117" s="6" t="s">
+        <v>299</v>
+      </c>
       <c r="B117" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E117" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F117 )</f>
-        <v>\u0953</v>
+        <v>\u0950</v>
       </c>
       <c r="F117" s="6" t="str">
         <f aca="false">RIGHT(D117,4)</f>
-        <v>0953</v>
-      </c>
-      <c r="G117" s="11"/>
+        <v>0950</v>
+      </c>
+      <c r="G117" s="7"/>
       <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
       <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
-      <c r="M117" s="6"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
       <c r="N117" s="6"/>
-      <c r="O117" s="6"/>
-      <c r="P117" s="6"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
       <c r="Q117" s="6"/>
       <c r="R117" s="6"/>
       <c r="S117" s="6"/>
@@ -8411,32 +8389,34 @@
       <c r="AR117" s="10"/>
     </row>
     <row r="118" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="6"/>
+      <c r="A118" s="6" t="s">
+        <v>302</v>
+      </c>
       <c r="B118" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E118" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F118 )</f>
-        <v>\u0954</v>
+        <v>\u0950</v>
       </c>
       <c r="F118" s="6" t="str">
         <f aca="false">RIGHT(D118,4)</f>
-        <v>0954</v>
-      </c>
-      <c r="G118" s="11"/>
+        <v>0950</v>
+      </c>
+      <c r="G118" s="7"/>
       <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
       <c r="K118" s="6"/>
-      <c r="L118" s="6"/>
-      <c r="M118" s="6"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
       <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="6"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
       <c r="Q118" s="6"/>
       <c r="R118" s="6"/>
       <c r="S118" s="6"/>
@@ -8467,35 +8447,33 @@
       <c r="AR118" s="10"/>
     </row>
     <row r="119" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="6" t="s">
-        <v>309</v>
-      </c>
+      <c r="A119" s="6"/>
       <c r="B119" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E119" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F119 )</f>
-        <v>\u0964</v>
+        <v>\u0951</v>
       </c>
       <c r="F119" s="6" t="str">
         <f aca="false">RIGHT(D119,4)</f>
-        <v>0964</v>
-      </c>
-      <c r="G119" s="7"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14"/>
-      <c r="L119" s="14"/>
-      <c r="M119" s="14"/>
-      <c r="N119" s="14"/>
-      <c r="O119" s="14"/>
-      <c r="P119" s="14"/>
-      <c r="Q119" s="14"/>
+        <v>0951</v>
+      </c>
+      <c r="G119" s="11"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
       <c r="S119" s="6"/>
       <c r="T119" s="6"/>
@@ -8525,35 +8503,33 @@
       <c r="AR119" s="10"/>
     </row>
     <row r="120" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="6" t="s">
-        <v>312</v>
-      </c>
+      <c r="A120" s="6"/>
       <c r="B120" s="6" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E120" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F120 )</f>
-        <v>\u0965</v>
+        <v>\u0952</v>
       </c>
       <c r="F120" s="6" t="str">
         <f aca="false">RIGHT(D120,4)</f>
-        <v>0965</v>
-      </c>
-      <c r="G120" s="7"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14"/>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="14"/>
-      <c r="O120" s="14"/>
-      <c r="P120" s="14"/>
-      <c r="Q120" s="14"/>
+        <v>0952</v>
+      </c>
+      <c r="G120" s="11"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
       <c r="R120" s="6"/>
       <c r="S120" s="6"/>
       <c r="T120" s="6"/>
@@ -8583,35 +8559,33 @@
       <c r="AR120" s="10"/>
     </row>
     <row r="121" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="6" t="s">
-        <v>315</v>
-      </c>
+      <c r="A121" s="6"/>
       <c r="B121" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E121" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F121 )</f>
-        <v>\u0966</v>
+        <v>\uA8F3</v>
       </c>
       <c r="F121" s="6" t="str">
         <f aca="false">RIGHT(D121,4)</f>
-        <v>0966</v>
-      </c>
-      <c r="G121" s="7"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
+        <v>A8F3</v>
+      </c>
+      <c r="G121" s="11"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
       <c r="N121" s="6"/>
-      <c r="O121" s="8"/>
-      <c r="P121" s="8"/>
-      <c r="Q121" s="8"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
       <c r="R121" s="6"/>
       <c r="S121" s="6"/>
       <c r="T121" s="6"/>
@@ -8641,35 +8615,33 @@
       <c r="AR121" s="10"/>
     </row>
     <row r="122" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="6" t="s">
-        <v>318</v>
-      </c>
+      <c r="A122" s="6"/>
       <c r="B122" s="6" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E122" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F122 )</f>
-        <v>\u0967</v>
+        <v>\u1CDA</v>
       </c>
       <c r="F122" s="6" t="str">
         <f aca="false">RIGHT(D122,4)</f>
-        <v>0967</v>
-      </c>
-      <c r="G122" s="7"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
+        <v>1CDA</v>
+      </c>
+      <c r="G122" s="11"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
       <c r="N122" s="6"/>
-      <c r="O122" s="8"/>
-      <c r="P122" s="8"/>
-      <c r="Q122" s="8"/>
+      <c r="O122" s="6"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
       <c r="R122" s="6"/>
       <c r="S122" s="6"/>
       <c r="T122" s="6"/>
@@ -8699,35 +8671,33 @@
       <c r="AR122" s="10"/>
     </row>
     <row r="123" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="6" t="s">
-        <v>321</v>
-      </c>
+      <c r="A123" s="6"/>
       <c r="B123" s="6" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E123" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F123 )</f>
-        <v>\u0968</v>
+        <v>\u0953</v>
       </c>
       <c r="F123" s="6" t="str">
         <f aca="false">RIGHT(D123,4)</f>
-        <v>0968</v>
-      </c>
-      <c r="G123" s="7"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
+        <v>0953</v>
+      </c>
+      <c r="G123" s="11"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
       <c r="N123" s="6"/>
-      <c r="O123" s="8"/>
-      <c r="P123" s="8"/>
-      <c r="Q123" s="8"/>
+      <c r="O123" s="6"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="6"/>
       <c r="R123" s="6"/>
       <c r="S123" s="6"/>
       <c r="T123" s="6"/>
@@ -8757,35 +8727,33 @@
       <c r="AR123" s="10"/>
     </row>
     <row r="124" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="6" t="s">
-        <v>324</v>
-      </c>
+      <c r="A124" s="6"/>
       <c r="B124" s="6" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E124" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F124 )</f>
-        <v>\u0969</v>
+        <v>\u0954</v>
       </c>
       <c r="F124" s="6" t="str">
         <f aca="false">RIGHT(D124,4)</f>
-        <v>0969</v>
-      </c>
-      <c r="G124" s="7"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
+        <v>0954</v>
+      </c>
+      <c r="G124" s="11"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
       <c r="N124" s="6"/>
-      <c r="O124" s="8"/>
-      <c r="P124" s="8"/>
-      <c r="Q124" s="8"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
       <c r="S124" s="6"/>
       <c r="T124" s="6"/>
@@ -8816,34 +8784,34 @@
     </row>
     <row r="125" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="E125" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F125 )</f>
-        <v>\u096A</v>
+        <v>\u0964</v>
       </c>
       <c r="F125" s="6" t="str">
         <f aca="false">RIGHT(D125,4)</f>
-        <v>096A</v>
+        <v>0964</v>
       </c>
       <c r="G125" s="7"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="6"/>
-      <c r="O125" s="8"/>
-      <c r="P125" s="8"/>
-      <c r="Q125" s="8"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
+      <c r="L125" s="14"/>
+      <c r="M125" s="14"/>
+      <c r="N125" s="14"/>
+      <c r="O125" s="14"/>
+      <c r="P125" s="14"/>
+      <c r="Q125" s="14"/>
       <c r="R125" s="6"/>
       <c r="S125" s="6"/>
       <c r="T125" s="6"/>
@@ -8874,34 +8842,34 @@
     </row>
     <row r="126" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E126" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F126 )</f>
-        <v>\u096B</v>
+        <v>\u0965</v>
       </c>
       <c r="F126" s="6" t="str">
         <f aca="false">RIGHT(D126,4)</f>
-        <v>096B</v>
+        <v>0965</v>
       </c>
       <c r="G126" s="7"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="6"/>
-      <c r="O126" s="8"/>
-      <c r="P126" s="8"/>
-      <c r="Q126" s="8"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="14"/>
+      <c r="L126" s="14"/>
+      <c r="M126" s="14"/>
+      <c r="N126" s="14"/>
+      <c r="O126" s="14"/>
+      <c r="P126" s="14"/>
+      <c r="Q126" s="14"/>
       <c r="R126" s="6"/>
       <c r="S126" s="6"/>
       <c r="T126" s="6"/>
@@ -8932,22 +8900,22 @@
     </row>
     <row r="127" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E127" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F127 )</f>
-        <v>\u096C</v>
+        <v>\u0966</v>
       </c>
       <c r="F127" s="6" t="str">
         <f aca="false">RIGHT(D127,4)</f>
-        <v>096C</v>
+        <v>0966</v>
       </c>
       <c r="G127" s="7"/>
       <c r="H127" s="8"/>
@@ -8990,22 +8958,22 @@
     </row>
     <row r="128" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E128" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F128 )</f>
-        <v>\u096D</v>
+        <v>\u0967</v>
       </c>
       <c r="F128" s="6" t="str">
         <f aca="false">RIGHT(D128,4)</f>
-        <v>096D</v>
+        <v>0967</v>
       </c>
       <c r="G128" s="7"/>
       <c r="H128" s="8"/>
@@ -9048,22 +9016,22 @@
     </row>
     <row r="129" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E129" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F129 )</f>
-        <v>\u096E</v>
+        <v>\u0968</v>
       </c>
       <c r="F129" s="6" t="str">
         <f aca="false">RIGHT(D129,4)</f>
-        <v>096E</v>
+        <v>0968</v>
       </c>
       <c r="G129" s="7"/>
       <c r="H129" s="8"/>
@@ -9106,22 +9074,22 @@
     </row>
     <row r="130" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E130" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F130 )</f>
-        <v>\u096F</v>
+        <v>\u0969</v>
       </c>
       <c r="F130" s="6" t="str">
         <f aca="false">RIGHT(D130,4)</f>
-        <v>096F</v>
+        <v>0969</v>
       </c>
       <c r="G130" s="7"/>
       <c r="H130" s="8"/>
@@ -9163,33 +9131,35 @@
       <c r="AR130" s="10"/>
     </row>
     <row r="131" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6"/>
+      <c r="A131" s="6" t="s">
+        <v>333</v>
+      </c>
       <c r="B131" s="6" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E131" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F131 )</f>
-        <v>\uA8F7</v>
+        <v>\u096A</v>
       </c>
       <c r="F131" s="6" t="str">
         <f aca="false">RIGHT(D131,4)</f>
-        <v>A8F7</v>
-      </c>
-      <c r="G131" s="11"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
-      <c r="L131" s="6"/>
-      <c r="M131" s="6"/>
+        <v>096A</v>
+      </c>
+      <c r="G131" s="7"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
       <c r="N131" s="6"/>
-      <c r="O131" s="6"/>
-      <c r="P131" s="6"/>
-      <c r="Q131" s="6"/>
+      <c r="O131" s="8"/>
+      <c r="P131" s="8"/>
+      <c r="Q131" s="8"/>
       <c r="R131" s="6"/>
       <c r="S131" s="6"/>
       <c r="T131" s="6"/>
@@ -9219,33 +9189,35 @@
       <c r="AR131" s="10"/>
     </row>
     <row r="132" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="6"/>
+      <c r="A132" s="6" t="s">
+        <v>336</v>
+      </c>
       <c r="B132" s="6" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="E132" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F132 )</f>
-        <v>\uA8F8</v>
+        <v>\u096B</v>
       </c>
       <c r="F132" s="6" t="str">
         <f aca="false">RIGHT(D132,4)</f>
-        <v>A8F8</v>
-      </c>
-      <c r="G132" s="11"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
-      <c r="L132" s="6"/>
-      <c r="M132" s="6"/>
+        <v>096B</v>
+      </c>
+      <c r="G132" s="7"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
       <c r="N132" s="6"/>
-      <c r="O132" s="6"/>
-      <c r="P132" s="6"/>
-      <c r="Q132" s="6"/>
+      <c r="O132" s="8"/>
+      <c r="P132" s="8"/>
+      <c r="Q132" s="8"/>
       <c r="R132" s="6"/>
       <c r="S132" s="6"/>
       <c r="T132" s="6"/>
@@ -9275,33 +9247,35 @@
       <c r="AR132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="6"/>
+      <c r="A133" s="6" t="s">
+        <v>339</v>
+      </c>
       <c r="B133" s="6" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E133" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F133 )</f>
-        <v>\u1CD0</v>
+        <v>\u096C</v>
       </c>
       <c r="F133" s="6" t="str">
         <f aca="false">RIGHT(D133,4)</f>
-        <v>1CD0</v>
-      </c>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
-      <c r="L133" s="6"/>
-      <c r="M133" s="6"/>
+        <v>096C</v>
+      </c>
+      <c r="G133" s="7"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
       <c r="N133" s="6"/>
-      <c r="O133" s="6"/>
-      <c r="P133" s="6"/>
-      <c r="Q133" s="6"/>
+      <c r="O133" s="8"/>
+      <c r="P133" s="8"/>
+      <c r="Q133" s="8"/>
       <c r="R133" s="6"/>
       <c r="S133" s="6"/>
       <c r="T133" s="6"/>
@@ -9331,33 +9305,35 @@
       <c r="AR133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="6"/>
+      <c r="A134" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="B134" s="6" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E134" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F134 )</f>
-        <v>\u1CD1</v>
+        <v>\u096D</v>
       </c>
       <c r="F134" s="6" t="str">
         <f aca="false">RIGHT(D134,4)</f>
-        <v>1CD1</v>
-      </c>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
+        <v>096D</v>
+      </c>
+      <c r="G134" s="7"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="8"/>
       <c r="N134" s="6"/>
-      <c r="O134" s="6"/>
-      <c r="P134" s="6"/>
-      <c r="Q134" s="6"/>
+      <c r="O134" s="8"/>
+      <c r="P134" s="8"/>
+      <c r="Q134" s="8"/>
       <c r="R134" s="6"/>
       <c r="S134" s="6"/>
       <c r="T134" s="6"/>
@@ -9387,33 +9363,35 @@
       <c r="AR134" s="10"/>
     </row>
     <row r="135" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="6"/>
+      <c r="A135" s="6" t="s">
+        <v>345</v>
+      </c>
       <c r="B135" s="6" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E135" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F135 )</f>
-        <v>\u1CD2</v>
+        <v>\u096E</v>
       </c>
       <c r="F135" s="6" t="str">
         <f aca="false">RIGHT(D135,4)</f>
-        <v>1CD2</v>
-      </c>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
-      <c r="M135" s="6"/>
+        <v>096E</v>
+      </c>
+      <c r="G135" s="7"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="8"/>
       <c r="N135" s="6"/>
-      <c r="O135" s="6"/>
-      <c r="P135" s="6"/>
-      <c r="Q135" s="6"/>
+      <c r="O135" s="8"/>
+      <c r="P135" s="8"/>
+      <c r="Q135" s="8"/>
       <c r="R135" s="6"/>
       <c r="S135" s="6"/>
       <c r="T135" s="6"/>
@@ -9443,33 +9421,35 @@
       <c r="AR135" s="10"/>
     </row>
     <row r="136" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="6"/>
+      <c r="A136" s="6" t="s">
+        <v>348</v>
+      </c>
       <c r="B136" s="6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E136" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F136 )</f>
-        <v>\u1CD3</v>
+        <v>\u096F</v>
       </c>
       <c r="F136" s="6" t="str">
         <f aca="false">RIGHT(D136,4)</f>
-        <v>1CD3</v>
-      </c>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
+        <v>096F</v>
+      </c>
+      <c r="G136" s="7"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
       <c r="N136" s="6"/>
-      <c r="O136" s="6"/>
-      <c r="P136" s="6"/>
-      <c r="Q136" s="6"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+      <c r="Q136" s="8"/>
       <c r="R136" s="6"/>
       <c r="S136" s="6"/>
       <c r="T136" s="6"/>
@@ -9499,37 +9479,35 @@
       <c r="AR136" s="10"/>
     </row>
     <row r="137" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C137" s="11"/>
-      <c r="D137" s="7" t="s">
-        <v>359</v>
+      <c r="A137" s="6"/>
+      <c r="B137" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="E137" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F137 )</f>
-        <v>\u20B9</v>
+        <v>\uA8F7</v>
       </c>
       <c r="F137" s="6" t="str">
         <f aca="false">RIGHT(D137,4)</f>
-        <v>20B9</v>
-      </c>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
-      <c r="L137" s="7"/>
-      <c r="M137" s="7"/>
-      <c r="N137" s="7"/>
-      <c r="O137" s="7"/>
-      <c r="P137" s="7"/>
-      <c r="Q137" s="7"/>
-      <c r="R137" s="7"/>
-      <c r="S137" s="7"/>
+        <v>A8F7</v>
+      </c>
+      <c r="G137" s="11"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="6"/>
+      <c r="S137" s="6"/>
       <c r="T137" s="6"/>
       <c r="U137" s="9"/>
       <c r="V137" s="9"/>
@@ -9557,37 +9535,35 @@
       <c r="AR137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C138" s="11"/>
-      <c r="D138" s="7" t="s">
-        <v>359</v>
+      <c r="A138" s="6"/>
+      <c r="B138" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="E138" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F138 )</f>
-        <v>\u20B9</v>
+        <v>\uA8F8</v>
       </c>
       <c r="F138" s="6" t="str">
         <f aca="false">RIGHT(D138,4)</f>
-        <v>20B9</v>
-      </c>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
-      <c r="K138" s="7"/>
-      <c r="L138" s="7"/>
-      <c r="M138" s="7"/>
-      <c r="N138" s="7"/>
-      <c r="O138" s="7"/>
-      <c r="P138" s="7"/>
-      <c r="Q138" s="7"/>
-      <c r="R138" s="7"/>
-      <c r="S138" s="7"/>
+        <v>A8F8</v>
+      </c>
+      <c r="G138" s="11"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="6"/>
       <c r="T138" s="6"/>
       <c r="U138" s="9"/>
       <c r="V138" s="9"/>
@@ -9615,39 +9591,35 @@
       <c r="AR138" s="10"/>
     </row>
     <row r="139" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="6" t="s">
-        <v>362</v>
-      </c>
+      <c r="A139" s="6"/>
       <c r="B139" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>364</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C139" s="6"/>
       <c r="D139" s="6" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E139" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F139 )</f>
-        <v>\uzwj}</v>
+        <v>\u1CD0</v>
       </c>
       <c r="F139" s="6" t="str">
         <f aca="false">RIGHT(D139,4)</f>
-        <v>zwj}</v>
-      </c>
-      <c r="G139" s="7"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="14"/>
-      <c r="K139" s="14"/>
-      <c r="L139" s="14"/>
-      <c r="M139" s="14"/>
+        <v>1CD0</v>
+      </c>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
       <c r="N139" s="6"/>
-      <c r="O139" s="14"/>
-      <c r="P139" s="14"/>
-      <c r="Q139" s="14"/>
-      <c r="R139" s="14"/>
-      <c r="S139" s="14"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="6"/>
       <c r="T139" s="6"/>
       <c r="U139" s="9"/>
       <c r="V139" s="9"/>
@@ -9675,34 +9647,32 @@
       <c r="AR139" s="10"/>
     </row>
     <row r="140" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6" t="s">
-        <v>366</v>
-      </c>
+      <c r="A140" s="6"/>
       <c r="B140" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D140" s="6"/>
+        <v>357</v>
+      </c>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6" t="s">
+        <v>358</v>
+      </c>
       <c r="E140" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F140 )</f>
-        <v>\u</v>
+        <v>\u1CD1</v>
       </c>
       <c r="F140" s="6" t="str">
         <f aca="false">RIGHT(D140,4)</f>
-        <v/>
-      </c>
-      <c r="G140" s="11"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="12"/>
-      <c r="L140" s="12"/>
-      <c r="M140" s="12"/>
+        <v>1CD1</v>
+      </c>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
       <c r="N140" s="6"/>
-      <c r="O140" s="12"/>
-      <c r="P140" s="12"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
       <c r="R140" s="6"/>
       <c r="S140" s="6"/>
@@ -9733,23 +9703,23 @@
       <c r="AR140" s="10"/>
     </row>
     <row r="141" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="15"/>
+      <c r="A141" s="6"/>
       <c r="B141" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E141" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F141 )</f>
-        <v>\u200B</v>
+        <v>\u1CD2</v>
       </c>
       <c r="F141" s="6" t="str">
         <f aca="false">RIGHT(D141,4)</f>
-        <v>200B</v>
-      </c>
-      <c r="G141" s="7"/>
+        <v>1CD2</v>
+      </c>
+      <c r="G141" s="6"/>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
@@ -9789,23 +9759,23 @@
       <c r="AR141" s="10"/>
     </row>
     <row r="142" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="15"/>
+      <c r="A142" s="6"/>
       <c r="B142" s="6" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="E142" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F142 )</f>
-        <v>\u200C</v>
+        <v>\u1CD3</v>
       </c>
       <c r="F142" s="6" t="str">
         <f aca="false">RIGHT(D142,4)</f>
-        <v>200C</v>
-      </c>
-      <c r="G142" s="7"/>
+        <v>1CD3</v>
+      </c>
+      <c r="G142" s="6"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
@@ -9845,35 +9815,37 @@
       <c r="AR142" s="10"/>
     </row>
     <row r="143" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="15"/>
-      <c r="B143" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6" t="s">
-        <v>373</v>
+      <c r="A143" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C143" s="11"/>
+      <c r="D143" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="E143" s="6" t="str">
         <f aca="false">CONCATENATE("\u",F143 )</f>
-        <v>\u200D</v>
+        <v>\u20B9</v>
       </c>
       <c r="F143" s="6" t="str">
         <f aca="false">RIGHT(D143,4)</f>
-        <v>200D</v>
+        <v>20B9</v>
       </c>
       <c r="G143" s="7"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="K143" s="6"/>
-      <c r="L143" s="6"/>
-      <c r="M143" s="6"/>
-      <c r="N143" s="6"/>
-      <c r="O143" s="6"/>
-      <c r="P143" s="6"/>
-      <c r="Q143" s="6"/>
-      <c r="R143" s="6"/>
-      <c r="S143" s="6"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
+      <c r="N143" s="7"/>
+      <c r="O143" s="7"/>
+      <c r="P143" s="7"/>
+      <c r="Q143" s="7"/>
+      <c r="R143" s="7"/>
+      <c r="S143" s="7"/>
       <c r="T143" s="6"/>
       <c r="U143" s="9"/>
       <c r="V143" s="9"/>
@@ -9900,6 +9872,386 @@
       <c r="AQ143" s="10"/>
       <c r="AR143" s="10"/>
     </row>
+    <row r="144" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C144" s="11"/>
+      <c r="D144" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E144" s="6" t="str">
+        <f aca="false">CONCATENATE("\u",F144 )</f>
+        <v>\u20B9</v>
+      </c>
+      <c r="F144" s="6" t="str">
+        <f aca="false">RIGHT(D144,4)</f>
+        <v>20B9</v>
+      </c>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="7"/>
+      <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
+      <c r="N144" s="7"/>
+      <c r="O144" s="7"/>
+      <c r="P144" s="7"/>
+      <c r="Q144" s="7"/>
+      <c r="R144" s="7"/>
+      <c r="S144" s="7"/>
+      <c r="T144" s="6"/>
+      <c r="U144" s="9"/>
+      <c r="V144" s="9"/>
+      <c r="W144" s="9"/>
+      <c r="X144" s="9"/>
+      <c r="Y144" s="9"/>
+      <c r="Z144" s="9"/>
+      <c r="AA144" s="9"/>
+      <c r="AB144" s="9"/>
+      <c r="AC144" s="10"/>
+      <c r="AD144" s="10"/>
+      <c r="AE144" s="10"/>
+      <c r="AF144" s="10"/>
+      <c r="AG144" s="10"/>
+      <c r="AH144" s="10"/>
+      <c r="AI144" s="10"/>
+      <c r="AJ144" s="10"/>
+      <c r="AK144" s="10"/>
+      <c r="AL144" s="10"/>
+      <c r="AM144" s="10"/>
+      <c r="AN144" s="10"/>
+      <c r="AO144" s="10"/>
+      <c r="AP144" s="10"/>
+      <c r="AQ144" s="10"/>
+      <c r="AR144" s="10"/>
+    </row>
+    <row r="145" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E145" s="6" t="str">
+        <f aca="false">CONCATENATE("\u",F145 )</f>
+        <v>\uzwj}</v>
+      </c>
+      <c r="F145" s="6" t="str">
+        <f aca="false">RIGHT(D145,4)</f>
+        <v>zwj}</v>
+      </c>
+      <c r="G145" s="7"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="14"/>
+      <c r="K145" s="14"/>
+      <c r="L145" s="14"/>
+      <c r="M145" s="14"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="14"/>
+      <c r="P145" s="14"/>
+      <c r="Q145" s="14"/>
+      <c r="R145" s="14"/>
+      <c r="S145" s="14"/>
+      <c r="T145" s="6"/>
+      <c r="U145" s="9"/>
+      <c r="V145" s="9"/>
+      <c r="W145" s="9"/>
+      <c r="X145" s="9"/>
+      <c r="Y145" s="9"/>
+      <c r="Z145" s="9"/>
+      <c r="AA145" s="9"/>
+      <c r="AB145" s="9"/>
+      <c r="AC145" s="10"/>
+      <c r="AD145" s="10"/>
+      <c r="AE145" s="10"/>
+      <c r="AF145" s="10"/>
+      <c r="AG145" s="10"/>
+      <c r="AH145" s="10"/>
+      <c r="AI145" s="10"/>
+      <c r="AJ145" s="10"/>
+      <c r="AK145" s="10"/>
+      <c r="AL145" s="10"/>
+      <c r="AM145" s="10"/>
+      <c r="AN145" s="10"/>
+      <c r="AO145" s="10"/>
+      <c r="AP145" s="10"/>
+      <c r="AQ145" s="10"/>
+      <c r="AR145" s="10"/>
+    </row>
+    <row r="146" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6" t="str">
+        <f aca="false">CONCATENATE("\u",F146 )</f>
+        <v>\u</v>
+      </c>
+      <c r="F146" s="6" t="inlineStr">
+        <f aca="false">RIGHT(D146,4)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G146" s="11"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="12"/>
+      <c r="P146" s="12"/>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="6"/>
+      <c r="S146" s="6"/>
+      <c r="T146" s="6"/>
+      <c r="U146" s="9"/>
+      <c r="V146" s="9"/>
+      <c r="W146" s="9"/>
+      <c r="X146" s="9"/>
+      <c r="Y146" s="9"/>
+      <c r="Z146" s="9"/>
+      <c r="AA146" s="9"/>
+      <c r="AB146" s="9"/>
+      <c r="AC146" s="10"/>
+      <c r="AD146" s="10"/>
+      <c r="AE146" s="10"/>
+      <c r="AF146" s="10"/>
+      <c r="AG146" s="10"/>
+      <c r="AH146" s="10"/>
+      <c r="AI146" s="10"/>
+      <c r="AJ146" s="10"/>
+      <c r="AK146" s="10"/>
+      <c r="AL146" s="10"/>
+      <c r="AM146" s="10"/>
+      <c r="AN146" s="10"/>
+      <c r="AO146" s="10"/>
+      <c r="AP146" s="10"/>
+      <c r="AQ146" s="10"/>
+      <c r="AR146" s="10"/>
+    </row>
+    <row r="147" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="15"/>
+      <c r="B147" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E147" s="6" t="str">
+        <f aca="false">CONCATENATE("\u",F147 )</f>
+        <v>\u200B</v>
+      </c>
+      <c r="F147" s="6" t="str">
+        <f aca="false">RIGHT(D147,4)</f>
+        <v>200B</v>
+      </c>
+      <c r="G147" s="7"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+      <c r="R147" s="6"/>
+      <c r="S147" s="6"/>
+      <c r="T147" s="6"/>
+      <c r="U147" s="9"/>
+      <c r="V147" s="9"/>
+      <c r="W147" s="9"/>
+      <c r="X147" s="9"/>
+      <c r="Y147" s="9"/>
+      <c r="Z147" s="9"/>
+      <c r="AA147" s="9"/>
+      <c r="AB147" s="9"/>
+      <c r="AC147" s="10"/>
+      <c r="AD147" s="10"/>
+      <c r="AE147" s="10"/>
+      <c r="AF147" s="10"/>
+      <c r="AG147" s="10"/>
+      <c r="AH147" s="10"/>
+      <c r="AI147" s="10"/>
+      <c r="AJ147" s="10"/>
+      <c r="AK147" s="10"/>
+      <c r="AL147" s="10"/>
+      <c r="AM147" s="10"/>
+      <c r="AN147" s="10"/>
+      <c r="AO147" s="10"/>
+      <c r="AP147" s="10"/>
+      <c r="AQ147" s="10"/>
+      <c r="AR147" s="10"/>
+    </row>
+    <row r="148" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="15"/>
+      <c r="B148" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E148" s="6" t="str">
+        <f aca="false">CONCATENATE("\u",F148 )</f>
+        <v>\u200C</v>
+      </c>
+      <c r="F148" s="6" t="str">
+        <f aca="false">RIGHT(D148,4)</f>
+        <v>200C</v>
+      </c>
+      <c r="G148" s="7"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="6"/>
+      <c r="T148" s="6"/>
+      <c r="U148" s="9"/>
+      <c r="V148" s="9"/>
+      <c r="W148" s="9"/>
+      <c r="X148" s="9"/>
+      <c r="Y148" s="9"/>
+      <c r="Z148" s="9"/>
+      <c r="AA148" s="9"/>
+      <c r="AB148" s="9"/>
+      <c r="AC148" s="10"/>
+      <c r="AD148" s="10"/>
+      <c r="AE148" s="10"/>
+      <c r="AF148" s="10"/>
+      <c r="AG148" s="10"/>
+      <c r="AH148" s="10"/>
+      <c r="AI148" s="10"/>
+      <c r="AJ148" s="10"/>
+      <c r="AK148" s="10"/>
+      <c r="AL148" s="10"/>
+      <c r="AM148" s="10"/>
+      <c r="AN148" s="10"/>
+      <c r="AO148" s="10"/>
+      <c r="AP148" s="10"/>
+      <c r="AQ148" s="10"/>
+      <c r="AR148" s="10"/>
+    </row>
+    <row r="149" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="15"/>
+      <c r="B149" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E149" s="6" t="str">
+        <f aca="false">CONCATENATE("\u",F149 )</f>
+        <v>\u200D</v>
+      </c>
+      <c r="F149" s="6" t="str">
+        <f aca="false">RIGHT(D149,4)</f>
+        <v>200D</v>
+      </c>
+      <c r="G149" s="7"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="6"/>
+      <c r="T149" s="6"/>
+      <c r="U149" s="9"/>
+      <c r="V149" s="9"/>
+      <c r="W149" s="9"/>
+      <c r="X149" s="9"/>
+      <c r="Y149" s="9"/>
+      <c r="Z149" s="9"/>
+      <c r="AA149" s="9"/>
+      <c r="AB149" s="9"/>
+      <c r="AC149" s="10"/>
+      <c r="AD149" s="10"/>
+      <c r="AE149" s="10"/>
+      <c r="AF149" s="10"/>
+      <c r="AG149" s="10"/>
+      <c r="AH149" s="10"/>
+      <c r="AI149" s="10"/>
+      <c r="AJ149" s="10"/>
+      <c r="AK149" s="10"/>
+      <c r="AL149" s="10"/>
+      <c r="AM149" s="10"/>
+      <c r="AN149" s="10"/>
+      <c r="AO149" s="10"/>
+      <c r="AP149" s="10"/>
+      <c r="AQ149" s="10"/>
+      <c r="AR149" s="10"/>
+    </row>
+    <row r="150" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="B150" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="D150" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="E150" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="F150" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="D151" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="E151" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="F151" s="20" t="s">
+        <v>381</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
